--- a/Data/CultureLysoData.xlsx
+++ b/Data/CultureLysoData.xlsx
@@ -5,18 +5,22 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://outlookuga-my.sharepoint.com/personal/ccz99536_uga_edu/Documents/Cruises/NES_CCS_Comparison/AcidotropicManuscript/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://outlookuga-my.sharepoint.com/personal/ccz99536_uga_edu/Documents/Cruises/NES_CCS_Comparison/AcidotropicManuscript/AcidotropicDyes/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11" documentId="14_{3E5DAE11-4240-B84C-8A20-1DB894A86FC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B59C9687-C6B6-DD4F-AD94-025F0E3DAA50}"/>
+  <xr:revisionPtr revIDLastSave="76" documentId="14_{3E5DAE11-4240-B84C-8A20-1DB894A86FC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7ABE170D-1F12-044F-B6BE-6A35EFD57BFF}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{607BD773-A4C5-F849-B861-90CB68BD1820}"/>
+    <workbookView xWindow="37160" yWindow="-820" windowWidth="30240" windowHeight="18880" activeTab="1" xr2:uid="{607BD773-A4C5-F849-B861-90CB68BD1820}"/>
   </bookViews>
   <sheets>
     <sheet name="LysoTracker" sheetId="1" r:id="rId1"/>
     <sheet name="LysoSensor" sheetId="2" r:id="rId2"/>
     <sheet name="LysoTrackerFluoresence" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">LysoSensor!$A$1:$H$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">LysoTracker!$A$1:$L$72</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -38,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="876" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="992" uniqueCount="79">
   <si>
     <t>Culture</t>
   </si>
@@ -218,6 +222,260 @@
   </si>
   <si>
     <t xml:space="preserve">Odontella sp. </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Geminigeria cryophila </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(CCMP2564)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Chaetoceros neogracile </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(RS19)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Chaetoceros sp. 02</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> (UNC2302)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Chaetoceros sp. 12</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> (UNC2312)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Chaetoceros sp. 22</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> (UNC2322)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Chlamydomonas sp. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(CCMP235)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Fragilariopsis cylindrus </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(UNC1902)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Gephyrocapsa huxleyi </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(UGA13)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Gephyrocapsa oceanica </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(UGA06)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Mantoniella antarctica </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(SL-175)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Micromonas polaris </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(CCMP2099)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Odontella rostrata </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(UGA01)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Odontella sp. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(UNC2314)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Pseudo-nitzschia subcurvata </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(UNC1901)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Phaeodactylum tricornutum </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(CCMP2561)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Pyramimonas tychotreta</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> (I-9</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t> Pyram)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Tetraselmis chui </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(PLY429)</t>
+    </r>
+  </si>
+  <si>
+    <t>Tetraselmis sp. </t>
+  </si>
+  <si>
+    <t>FullNames</t>
   </si>
 </sst>
 </file>
@@ -228,7 +486,7 @@
     <numFmt numFmtId="164" formatCode="0.0000%"/>
     <numFmt numFmtId="165" formatCode="0.000%"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -277,6 +535,19 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -299,7 +570,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -313,6 +584,7 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -329,10 +601,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -652,3367 +920,3723 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D350FA7F-BC6A-F048-8F8F-5AAFD6033654}">
-  <dimension ref="A1:K72"/>
+  <dimension ref="A1:L72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="A46" sqref="A46:XFD46"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.1640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.33203125" customWidth="1"/>
+    <col min="3" max="3" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="12.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1</v>
       </c>
       <c r="B1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="G1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>11</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2" t="s">
         <v>12</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>13</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>14</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="7">
+      <c r="G2" s="7">
         <v>44756</v>
       </c>
-      <c r="G2" s="1">
+      <c r="H2" s="1">
         <v>0.81327626869961855</v>
       </c>
-      <c r="H2" s="1">
+      <c r="I2" s="1">
         <v>6.4273751996254735E-2</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>593.86516402936604</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>6.3866522970114623</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>16</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="C3" t="s">
         <v>12</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>13</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>14</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="7">
+      <c r="G3" s="7">
         <v>44756</v>
       </c>
-      <c r="G3" s="1">
+      <c r="H3" s="1">
         <v>0.98343739608881675</v>
       </c>
-      <c r="H3" s="1">
+      <c r="I3" s="1">
         <v>1.1736946614949685E-2</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>23255.348374826499</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>10.054290422187851</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>18</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="C4" t="s">
         <v>12</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>13</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>14</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="7">
+      <c r="G4" s="7">
         <v>44756</v>
       </c>
-      <c r="G4" s="1">
+      <c r="H4" s="1">
         <v>0.94985472353285383</v>
       </c>
-      <c r="H4" s="1">
+      <c r="I4" s="1">
         <v>6.4965760572424161E-2</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>16697.6376428925</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>9.7230225298892172</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>19</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="C5" t="s">
         <v>12</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>13</v>
       </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
       <c r="E5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="7">
+      <c r="G5" s="7">
         <v>45444</v>
       </c>
-      <c r="G5" s="2">
+      <c r="H5" s="2">
         <v>0.98340863670000001</v>
       </c>
-      <c r="H5" s="2">
+      <c r="I5" s="2">
         <v>6.825924354E-3</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>34389.424393499998</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>10.445504365673559</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>22</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="C6" t="s">
         <v>12</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>13</v>
       </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
       <c r="E6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" t="s">
         <v>21</v>
       </c>
-      <c r="F6" s="7">
+      <c r="G6" s="7">
         <v>45444</v>
       </c>
-      <c r="G6" s="2">
+      <c r="H6" s="2">
         <v>0.99843847600000002</v>
       </c>
-      <c r="H6" s="2">
+      <c r="I6" s="2">
         <v>2.2083284860000001E-3</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>363118.70437800005</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>12.802485069096884</v>
       </c>
-      <c r="K6" s="7"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L6" s="7"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>23</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="C7" t="s">
         <v>12</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>13</v>
       </c>
-      <c r="D7" t="s">
-        <v>20</v>
-      </c>
       <c r="E7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" t="s">
         <v>21</v>
       </c>
-      <c r="F7" s="7">
+      <c r="G7" s="7">
         <v>45444</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>0.99146825400000005</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>3.6477730770000001E-3</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>6132.4630968499996</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>8.7213517584789901</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>24</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="C8" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="D8" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
       <c r="E8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" t="s">
         <v>21</v>
       </c>
-      <c r="F8" s="7">
+      <c r="G8" s="7">
         <v>45444</v>
       </c>
-      <c r="G8" s="2">
+      <c r="H8" s="2">
         <v>0.86027383079999997</v>
       </c>
-      <c r="H8" s="2">
+      <c r="I8" s="2">
         <v>4.1904034399999998E-2</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>1817.6406277000001</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>7.5052945806647857</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>26</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="C9" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="D9" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D9" t="s">
-        <v>20</v>
-      </c>
       <c r="E9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" t="s">
         <v>28</v>
       </c>
-      <c r="F9" s="7">
+      <c r="G9" s="7">
         <v>45444</v>
       </c>
-      <c r="G9" s="2">
+      <c r="H9" s="2">
         <v>0.62828600540000001</v>
       </c>
-      <c r="H9" s="2">
+      <c r="I9" s="2">
         <v>6.3036553480000004E-3</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>10052.579537</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>9.2155845509012817</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>29</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="C10" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="D10" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D10" t="s">
-        <v>20</v>
-      </c>
       <c r="E10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10" t="s">
         <v>28</v>
       </c>
-      <c r="F10" s="7">
+      <c r="G10" s="7">
         <v>45444</v>
       </c>
-      <c r="G10" s="2">
+      <c r="H10" s="2">
         <v>0.95907210060000003</v>
       </c>
-      <c r="H10" s="2">
+      <c r="I10" s="2">
         <v>4.625886232E-3</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>402216.02900000004</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>12.904744608833379</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>30</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="C11" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="D11" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D11" t="s">
-        <v>20</v>
-      </c>
       <c r="E11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" t="s">
         <v>32</v>
       </c>
-      <c r="F11" s="7">
+      <c r="G11" s="7">
         <v>45444</v>
       </c>
-      <c r="G11" s="2">
+      <c r="H11" s="2">
         <v>-5.0617615460000001E-3</v>
       </c>
-      <c r="H11" s="2">
+      <c r="I11" s="2">
         <v>7.1584118280000001E-3</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>9857.3459050000001</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>9.195972233369897</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>33</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="C12" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="D12" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D12" t="s">
-        <v>20</v>
-      </c>
       <c r="E12" t="s">
+        <v>20</v>
+      </c>
+      <c r="F12" t="s">
         <v>32</v>
       </c>
-      <c r="F12" s="7">
+      <c r="G12" s="7">
         <v>45444</v>
       </c>
-      <c r="G12" s="2">
+      <c r="H12" s="2">
         <v>0.9169708151</v>
       </c>
-      <c r="H12" s="2">
+      <c r="I12" s="2">
         <v>3.9666901820000003E-3</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>12314.765396700001</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>9.4185542601661165</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>34</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="C13" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="D13" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D13" t="s">
-        <v>20</v>
-      </c>
       <c r="E13" t="s">
+        <v>20</v>
+      </c>
+      <c r="F13" t="s">
         <v>32</v>
       </c>
-      <c r="F13" s="7">
+      <c r="G13" s="7">
         <v>45444</v>
       </c>
-      <c r="G13" s="2">
+      <c r="H13" s="2">
         <v>0.98905379510000002</v>
       </c>
-      <c r="H13" s="2">
+      <c r="I13" s="2">
         <v>1.0350113350000001E-2</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>33818.664055000001</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>10.428768120046104</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>18</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="C14" t="s">
         <v>12</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>13</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
         <v>14</v>
       </c>
-      <c r="E14" t="s">
+      <c r="F14" t="s">
         <v>17</v>
       </c>
-      <c r="F14" s="7">
+      <c r="G14" s="7">
         <v>45444</v>
       </c>
-      <c r="G14" s="2">
+      <c r="H14" s="2">
         <v>0.94488158680000001</v>
       </c>
-      <c r="H14" s="2">
+      <c r="I14" s="2">
         <v>2.2119324839999999E-2</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>3082.2954577999999</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>8.0334298768919954</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>16</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="C15" t="s">
         <v>12</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
         <v>13</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
         <v>14</v>
       </c>
-      <c r="E15" t="s">
+      <c r="F15" t="s">
         <v>17</v>
       </c>
-      <c r="F15" s="7">
+      <c r="G15" s="7">
         <v>45444</v>
       </c>
-      <c r="G15" s="2">
+      <c r="H15" s="2">
         <v>0.93590906650000005</v>
       </c>
-      <c r="H15" s="2">
+      <c r="I15" s="2">
         <v>1.3056018710000001E-2</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>7256.2699728000007</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>8.8896211979385384</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>11</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="C16" t="s">
         <v>12</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
         <v>13</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E16" t="s">
         <v>14</v>
       </c>
-      <c r="E16" t="s">
+      <c r="F16" t="s">
         <v>15</v>
       </c>
-      <c r="F16" s="7">
+      <c r="G16" s="7">
         <v>45444</v>
       </c>
-      <c r="G16" s="2">
+      <c r="H16" s="2">
         <v>0.79862215339999998</v>
       </c>
-      <c r="H16" s="2">
+      <c r="I16" s="2">
         <v>0.20315996559999999</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>4925.6896339100003</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <v>8.5022195709931445</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>19</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="C17" t="s">
         <v>12</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
         <v>13</v>
       </c>
-      <c r="D17" t="s">
-        <v>20</v>
-      </c>
       <c r="E17" t="s">
+        <v>20</v>
+      </c>
+      <c r="F17" t="s">
         <v>21</v>
       </c>
-      <c r="F17" s="7">
+      <c r="G17" s="7">
         <v>45474</v>
       </c>
-      <c r="G17" s="4">
+      <c r="H17" s="4">
         <v>0.98340863671791845</v>
       </c>
-      <c r="H17" s="4">
+      <c r="I17" s="4">
         <v>6.8259243536893015E-3</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>36308.516530000001</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <v>10.499807607886627</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>22</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="C18" t="s">
         <v>12</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D18" t="s">
         <v>13</v>
       </c>
-      <c r="D18" t="s">
-        <v>20</v>
-      </c>
       <c r="E18" t="s">
+        <v>20</v>
+      </c>
+      <c r="F18" t="s">
         <v>21</v>
       </c>
-      <c r="F18" s="7">
+      <c r="G18" s="7">
         <v>45474</v>
       </c>
-      <c r="G18" s="4">
+      <c r="H18" s="4">
         <v>0.99843847595245394</v>
       </c>
-      <c r="H18" s="4">
+      <c r="I18" s="4">
         <v>2.2083284860113664E-3</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>342934.24739999999</v>
       </c>
-      <c r="J18">
+      <c r="K18">
         <v>12.745294009229289</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>23</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="C19" t="s">
         <v>12</v>
       </c>
-      <c r="C19" t="s">
+      <c r="D19" t="s">
         <v>13</v>
       </c>
-      <c r="D19" t="s">
-        <v>20</v>
-      </c>
       <c r="E19" t="s">
+        <v>20</v>
+      </c>
+      <c r="F19" t="s">
         <v>21</v>
       </c>
-      <c r="F19" s="7">
+      <c r="G19" s="7">
         <v>45474</v>
       </c>
-      <c r="G19" s="4">
+      <c r="H19" s="4">
         <v>0.94796222023317034</v>
       </c>
-      <c r="H19" s="4">
+      <c r="I19" s="4">
         <v>1.3359688693686396E-2</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>4597.93822</v>
       </c>
-      <c r="J19">
+      <c r="K19">
         <v>8.4333632689562172</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>24</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="C20" t="s">
         <v>12</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="D20" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D20" t="s">
-        <v>20</v>
-      </c>
       <c r="E20" t="s">
+        <v>20</v>
+      </c>
+      <c r="F20" t="s">
         <v>21</v>
       </c>
-      <c r="F20" s="7">
+      <c r="G20" s="7">
         <v>45474</v>
       </c>
-      <c r="G20" s="4">
+      <c r="H20" s="4">
         <v>0.86027383076467689</v>
       </c>
-      <c r="H20" s="4">
+      <c r="I20" s="4">
         <v>4.1904034402921349E-2</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>2249.9040110000001</v>
       </c>
-      <c r="J20">
+      <c r="K20">
         <v>7.7186428325106489</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>26</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="C21" t="s">
         <v>12</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="D21" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D21" t="s">
-        <v>20</v>
-      </c>
       <c r="E21" t="s">
+        <v>20</v>
+      </c>
+      <c r="F21" t="s">
         <v>28</v>
       </c>
-      <c r="F21" s="7">
+      <c r="G21" s="7">
         <v>45474</v>
       </c>
-      <c r="G21" s="4">
+      <c r="H21" s="4">
         <v>0.62828600539534629</v>
       </c>
-      <c r="H21" s="4">
+      <c r="I21" s="4">
         <v>6.3036553482540914E-3</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <v>35992.141499999998</v>
       </c>
-      <c r="J21">
+      <c r="K21">
         <v>10.491055901942486</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>29</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="C22" t="s">
         <v>12</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="D22" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D22" t="s">
-        <v>20</v>
-      </c>
       <c r="E22" t="s">
+        <v>20</v>
+      </c>
+      <c r="F22" t="s">
         <v>28</v>
       </c>
-      <c r="F22" s="7">
+      <c r="G22" s="7">
         <v>45474</v>
       </c>
-      <c r="G22" s="4">
+      <c r="H22" s="4">
         <v>0.95907210060571191</v>
       </c>
-      <c r="H22" s="4">
+      <c r="I22" s="4">
         <v>4.6258862317216549E-3</v>
       </c>
-      <c r="I22">
+      <c r="J22">
         <v>438219.35399999999</v>
       </c>
-      <c r="J22">
+      <c r="K22">
         <v>12.990474872215179</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>30</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="C23" t="s">
         <v>12</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="D23" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D23" t="s">
-        <v>20</v>
-      </c>
       <c r="E23" t="s">
+        <v>20</v>
+      </c>
+      <c r="F23" t="s">
         <v>32</v>
       </c>
-      <c r="F23" s="7">
+      <c r="G23" s="7">
         <v>45474</v>
       </c>
-      <c r="G23" s="4">
+      <c r="H23" s="4">
         <v>-5.0617615459237798E-3</v>
       </c>
-      <c r="H23" s="4">
+      <c r="I23" s="4">
         <v>7.1584118277440139E-3</v>
       </c>
-      <c r="I23">
+      <c r="J23">
         <v>10055.016589999999</v>
       </c>
-      <c r="J23">
+      <c r="K23">
         <v>9.2158269521308007</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>33</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="C24" t="s">
         <v>12</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="D24" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D24" t="s">
-        <v>20</v>
-      </c>
       <c r="E24" t="s">
+        <v>20</v>
+      </c>
+      <c r="F24" t="s">
         <v>32</v>
       </c>
-      <c r="F24" s="7">
+      <c r="G24" s="7">
         <v>45474</v>
       </c>
-      <c r="G24" s="4">
+      <c r="H24" s="4">
         <v>0.91697081508372724</v>
       </c>
-      <c r="H24" s="4">
+      <c r="I24" s="4">
         <v>3.9666901820057049E-3</v>
       </c>
-      <c r="I24">
+      <c r="J24">
         <v>10752.75792</v>
       </c>
-      <c r="J24">
+      <c r="K24">
         <v>9.2829175513499802</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>34</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="C25" t="s">
         <v>12</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="D25" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D25" t="s">
-        <v>20</v>
-      </c>
       <c r="E25" t="s">
+        <v>20</v>
+      </c>
+      <c r="F25" t="s">
         <v>32</v>
       </c>
-      <c r="F25" s="7">
+      <c r="G25" s="7">
         <v>45474</v>
       </c>
-      <c r="G25" s="4">
+      <c r="H25" s="4">
         <v>0.98905379514451297</v>
       </c>
-      <c r="H25" s="4">
+      <c r="I25" s="4">
         <v>1.0350113346708486E-2</v>
       </c>
-      <c r="I25">
+      <c r="J25">
         <v>9920.4047570000002</v>
       </c>
-      <c r="J25">
+      <c r="K25">
         <v>9.202349001563471</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>18</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="C26" t="s">
         <v>12</v>
       </c>
-      <c r="C26" t="s">
+      <c r="D26" t="s">
         <v>13</v>
       </c>
-      <c r="D26" t="s">
+      <c r="E26" t="s">
         <v>14</v>
       </c>
-      <c r="E26" t="s">
+      <c r="F26" t="s">
         <v>17</v>
       </c>
-      <c r="F26" s="7">
+      <c r="G26" s="7">
         <v>45474</v>
       </c>
-      <c r="G26" s="4">
+      <c r="H26" s="4">
         <v>0.94488158681168277</v>
       </c>
-      <c r="H26" s="4">
+      <c r="I26" s="4">
         <v>2.2119324838222518E-2</v>
       </c>
-      <c r="I26">
+      <c r="J26">
         <v>4484.3700630000003</v>
       </c>
-      <c r="J26">
+      <c r="K26">
         <v>8.4083533104476817</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>16</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="C27" t="s">
         <v>12</v>
       </c>
-      <c r="C27" t="s">
+      <c r="D27" t="s">
         <v>13</v>
       </c>
-      <c r="D27" t="s">
+      <c r="E27" t="s">
         <v>14</v>
       </c>
-      <c r="E27" t="s">
+      <c r="F27" t="s">
         <v>17</v>
       </c>
-      <c r="F27" s="7">
+      <c r="G27" s="7">
         <v>45474</v>
       </c>
-      <c r="G27" s="4">
+      <c r="H27" s="4">
         <v>0.94183554270642589</v>
       </c>
-      <c r="H27" s="4">
+      <c r="I27" s="4">
         <v>5.6764946312991157E-2</v>
       </c>
-      <c r="I27">
+      <c r="J27">
         <v>5218.1386920000004</v>
       </c>
-      <c r="J27">
+      <c r="K27">
         <v>8.559896044875833</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>11</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="C28" t="s">
         <v>12</v>
       </c>
-      <c r="C28" t="s">
+      <c r="D28" t="s">
         <v>13</v>
       </c>
-      <c r="D28" t="s">
+      <c r="E28" t="s">
         <v>14</v>
       </c>
-      <c r="E28" t="s">
+      <c r="F28" t="s">
         <v>15</v>
       </c>
-      <c r="F28" s="7">
+      <c r="G28" s="7">
         <v>45474</v>
       </c>
-      <c r="G28" s="4">
+      <c r="H28" s="4">
         <v>0.91375650937499753</v>
       </c>
-      <c r="H28" s="4">
+      <c r="I28" s="4">
         <v>1.9891403226063218E-3</v>
       </c>
-      <c r="I28">
+      <c r="J28">
         <v>13950.30732</v>
       </c>
-      <c r="J28">
+      <c r="K28">
         <v>9.5432568171143792</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>34</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="C29" t="s">
         <v>12</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="D29" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D29" t="s">
-        <v>20</v>
-      </c>
       <c r="E29" t="s">
+        <v>20</v>
+      </c>
+      <c r="F29" t="s">
         <v>32</v>
       </c>
-      <c r="F29" s="7">
+      <c r="G29" s="7">
         <v>45374</v>
       </c>
-      <c r="G29" s="5">
+      <c r="H29" s="5">
         <v>0.91601437315036682</v>
       </c>
-      <c r="H29" s="5">
+      <c r="I29" s="5">
         <v>2.1537397829740237E-3</v>
       </c>
-      <c r="I29">
+      <c r="J29">
         <v>202461.0284316311</v>
       </c>
-      <c r="J29">
+      <c r="K29">
         <v>12.218302694817956</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>33</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="C30" t="s">
         <v>12</v>
       </c>
-      <c r="C30" s="3" t="s">
+      <c r="D30" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D30" t="s">
-        <v>20</v>
-      </c>
       <c r="E30" t="s">
+        <v>20</v>
+      </c>
+      <c r="F30" t="s">
         <v>32</v>
       </c>
-      <c r="F30" s="7">
+      <c r="G30" s="7">
         <v>45374</v>
       </c>
-      <c r="G30" s="5">
+      <c r="H30" s="5">
         <v>0.88653881264281131</v>
       </c>
-      <c r="H30" s="5">
+      <c r="I30" s="5">
         <v>3.0454942414478441E-3</v>
       </c>
-      <c r="I30">
+      <c r="J30">
         <v>106774.6750960074</v>
       </c>
-      <c r="J30">
+      <c r="K30">
         <v>11.578476052820536</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>23</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="C31" t="s">
         <v>12</v>
       </c>
-      <c r="C31" t="s">
+      <c r="D31" t="s">
         <v>13</v>
       </c>
-      <c r="D31" t="s">
-        <v>20</v>
-      </c>
       <c r="E31" t="s">
+        <v>20</v>
+      </c>
+      <c r="F31" t="s">
         <v>21</v>
       </c>
-      <c r="F31" s="7">
+      <c r="G31" s="7">
         <v>45374</v>
       </c>
-      <c r="G31" s="5">
+      <c r="H31" s="5">
         <v>0.94</v>
       </c>
-      <c r="H31" s="5">
+      <c r="I31" s="5">
         <v>0.02</v>
       </c>
-      <c r="I31">
+      <c r="J31">
         <v>696.40938153000002</v>
       </c>
-      <c r="J31">
+      <c r="K31">
         <v>6.5459376792708417</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>23</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="C32" t="s">
         <v>12</v>
       </c>
-      <c r="C32" t="s">
+      <c r="D32" t="s">
         <v>13</v>
       </c>
-      <c r="D32" t="s">
-        <v>20</v>
-      </c>
       <c r="E32" t="s">
+        <v>20</v>
+      </c>
+      <c r="F32" t="s">
         <v>21</v>
       </c>
-      <c r="F32" s="7">
+      <c r="G32" s="7">
         <v>45374</v>
       </c>
-      <c r="G32" s="5">
+      <c r="H32" s="5">
         <v>0.95</v>
       </c>
-      <c r="H32" s="5">
+      <c r="I32" s="5">
         <v>0.02</v>
       </c>
-      <c r="I32">
+      <c r="J32">
         <v>674.57681286000002</v>
       </c>
-      <c r="J32">
+      <c r="K32">
         <v>6.514085550349904</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>22</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="C33" t="s">
         <v>12</v>
       </c>
-      <c r="C33" t="s">
+      <c r="D33" t="s">
         <v>13</v>
       </c>
-      <c r="D33" t="s">
-        <v>20</v>
-      </c>
       <c r="E33" t="s">
+        <v>20</v>
+      </c>
+      <c r="F33" t="s">
         <v>21</v>
       </c>
-      <c r="F33" s="7">
+      <c r="G33" s="7">
         <v>45374</v>
       </c>
-      <c r="G33" s="5">
+      <c r="H33" s="5">
         <v>0.97</v>
       </c>
-      <c r="H33" s="5">
+      <c r="I33" s="5">
         <v>0.01</v>
       </c>
-      <c r="I33">
+      <c r="J33">
         <v>2095.9030677000001</v>
       </c>
-      <c r="J33">
+      <c r="K33">
         <v>7.6477397980452029</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>22</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="C34" t="s">
         <v>12</v>
       </c>
-      <c r="C34" t="s">
+      <c r="D34" t="s">
         <v>13</v>
       </c>
-      <c r="D34" t="s">
-        <v>20</v>
-      </c>
       <c r="E34" t="s">
+        <v>20</v>
+      </c>
+      <c r="F34" t="s">
         <v>21</v>
       </c>
-      <c r="F34" s="7">
+      <c r="G34" s="7">
         <v>45374</v>
       </c>
-      <c r="G34" s="5">
+      <c r="H34" s="5">
         <v>0.8</v>
       </c>
-      <c r="H34" s="5">
+      <c r="I34" s="5">
         <v>0.04</v>
       </c>
-      <c r="I34">
+      <c r="J34">
         <v>2333.3290351999999</v>
       </c>
-      <c r="J34">
+      <c r="K34">
         <v>7.7550512973105015</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>11</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="C35" t="s">
         <v>12</v>
       </c>
-      <c r="C35" t="s">
+      <c r="D35" t="s">
         <v>13</v>
       </c>
-      <c r="D35" t="s">
+      <c r="E35" t="s">
         <v>14</v>
       </c>
-      <c r="E35" t="s">
+      <c r="F35" t="s">
         <v>15</v>
       </c>
-      <c r="F35" s="7">
+      <c r="G35" s="7">
         <v>45374</v>
       </c>
-      <c r="G35" s="5">
+      <c r="H35" s="5">
         <v>0.9528914036544851</v>
       </c>
-      <c r="H35" s="5">
+      <c r="I35" s="5">
         <v>3.3035511994819445E-4</v>
       </c>
-      <c r="I35">
+      <c r="J35">
         <v>1412.7720377139092</v>
       </c>
-      <c r="J35">
+      <c r="K35">
         <v>7.2533090375487257</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>18</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="C36" t="s">
         <v>12</v>
       </c>
-      <c r="C36" t="s">
+      <c r="D36" t="s">
         <v>13</v>
       </c>
-      <c r="D36" t="s">
+      <c r="E36" t="s">
         <v>14</v>
       </c>
-      <c r="E36" t="s">
+      <c r="F36" t="s">
         <v>17</v>
       </c>
-      <c r="F36" s="7">
+      <c r="G36" s="7">
         <v>45374</v>
       </c>
-      <c r="G36" s="5">
+      <c r="H36" s="5">
         <v>0.9789427982199066</v>
       </c>
-      <c r="H36" s="5">
+      <c r="I36" s="5">
         <v>4.2980548948709646E-3</v>
       </c>
-      <c r="I36">
+      <c r="J36">
         <v>7764.277083762915</v>
       </c>
-      <c r="J36">
+      <c r="K36">
         <v>8.9572886319265503</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>24</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="C37" t="s">
         <v>12</v>
       </c>
-      <c r="C37" s="3" t="s">
+      <c r="D37" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D37" t="s">
-        <v>20</v>
-      </c>
       <c r="E37" t="s">
+        <v>20</v>
+      </c>
+      <c r="F37" t="s">
         <v>21</v>
       </c>
-      <c r="F37" s="7">
+      <c r="G37" s="7">
         <v>45374</v>
       </c>
-      <c r="G37" s="5">
+      <c r="H37" s="5">
         <v>0.83355390780238903</v>
       </c>
-      <c r="H37" s="5">
+      <c r="I37" s="5">
         <v>6.6674711750020682E-2</v>
       </c>
-      <c r="I37">
+      <c r="J37">
         <v>5944.9468035607561</v>
       </c>
-      <c r="J37">
+      <c r="K37">
         <v>8.6902968609874147</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>29</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="C38" t="s">
         <v>12</v>
       </c>
-      <c r="C38" s="3" t="s">
+      <c r="D38" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D38" t="s">
-        <v>20</v>
-      </c>
       <c r="E38" t="s">
+        <v>20</v>
+      </c>
+      <c r="F38" t="s">
         <v>28</v>
       </c>
-      <c r="F38" s="7">
+      <c r="G38" s="7">
         <v>45374</v>
       </c>
-      <c r="G38" s="5">
+      <c r="H38" s="5">
         <v>0.90277777777777768</v>
       </c>
-      <c r="H38" s="5">
+      <c r="I38" s="5">
         <v>1.9641855032959663E-2</v>
       </c>
-      <c r="I38">
+      <c r="J38">
         <v>9011.1445842358698</v>
       </c>
-      <c r="J38">
+      <c r="K38">
         <v>9.1062173774104824</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>26</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="C39" t="s">
         <v>12</v>
       </c>
-      <c r="C39" s="3" t="s">
+      <c r="D39" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D39" t="s">
-        <v>20</v>
-      </c>
       <c r="E39" t="s">
+        <v>20</v>
+      </c>
+      <c r="F39" t="s">
         <v>28</v>
       </c>
-      <c r="F39" s="7">
+      <c r="G39" s="7">
         <v>45374</v>
       </c>
-      <c r="G39" s="5">
+      <c r="H39" s="5">
         <v>0.63523817058295828</v>
       </c>
-      <c r="H39" s="5">
+      <c r="I39" s="5">
         <v>3.2512313740974297E-2</v>
       </c>
-      <c r="I39">
+      <c r="J39">
         <v>13265.061592100981</v>
       </c>
-      <c r="J39">
+      <c r="K39">
         <v>9.4928889097650551</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>30</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="C40" t="s">
         <v>12</v>
       </c>
-      <c r="C40" s="3" t="s">
+      <c r="D40" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D40" t="s">
-        <v>20</v>
-      </c>
       <c r="E40" t="s">
+        <v>20</v>
+      </c>
+      <c r="F40" t="s">
         <v>32</v>
       </c>
-      <c r="F40" s="7">
+      <c r="G40" s="7">
         <v>45374</v>
-      </c>
-      <c r="G40" s="5">
-        <v>0</v>
       </c>
       <c r="H40" s="5">
         <v>0</v>
       </c>
-      <c r="I40">
+      <c r="I40" s="5">
+        <v>0</v>
+      </c>
+      <c r="J40">
         <v>13428.47415</v>
       </c>
-      <c r="J40">
+      <c r="K40">
         <v>9.5051326680216519</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>19</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B41" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="C41" t="s">
         <v>35</v>
       </c>
-      <c r="C41" t="s">
+      <c r="D41" t="s">
         <v>13</v>
       </c>
-      <c r="D41" t="s">
-        <v>20</v>
-      </c>
       <c r="E41" t="s">
+        <v>20</v>
+      </c>
+      <c r="F41" t="s">
         <v>21</v>
       </c>
-      <c r="F41" s="7">
+      <c r="G41" s="7">
         <v>45559</v>
       </c>
-      <c r="G41" s="5">
+      <c r="H41" s="5">
         <v>0.98346556366516158</v>
       </c>
-      <c r="H41" s="5">
+      <c r="I41" s="5">
         <v>1.9354036724075769E-3</v>
       </c>
-      <c r="I41">
+      <c r="J41">
         <v>132976.5</v>
       </c>
-      <c r="J41">
+      <c r="K41">
         <v>11.797927699862745</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>23</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B42" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="C42" t="s">
         <v>35</v>
       </c>
-      <c r="C42" t="s">
+      <c r="D42" t="s">
         <v>13</v>
       </c>
-      <c r="D42" t="s">
-        <v>20</v>
-      </c>
       <c r="E42" t="s">
+        <v>20</v>
+      </c>
+      <c r="F42" t="s">
         <v>21</v>
       </c>
-      <c r="F42" s="7">
+      <c r="G42" s="7">
         <v>45559</v>
       </c>
-      <c r="G42" s="5">
+      <c r="H42" s="5">
         <v>0.97028051521169378</v>
       </c>
-      <c r="H42" s="5">
+      <c r="I42" s="5">
         <v>1.1476635395607981E-2</v>
       </c>
-      <c r="I42">
+      <c r="J42">
         <v>4153</v>
       </c>
-      <c r="J42">
+      <c r="K42">
         <v>8.3315862436307544</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>22</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B43" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="C43" t="s">
         <v>35</v>
       </c>
-      <c r="C43" t="s">
+      <c r="D43" t="s">
         <v>13</v>
       </c>
-      <c r="D43" t="s">
-        <v>20</v>
-      </c>
       <c r="E43" t="s">
+        <v>20</v>
+      </c>
+      <c r="F43" t="s">
         <v>21</v>
       </c>
-      <c r="F43" s="7">
+      <c r="G43" s="7">
         <v>45559</v>
       </c>
-      <c r="G43" s="5">
+      <c r="H43" s="5">
         <v>0.98670419325901337</v>
       </c>
-      <c r="H43" s="5">
+      <c r="I43" s="5">
         <v>8.8762792684620399E-3</v>
       </c>
-      <c r="I43">
+      <c r="J43">
         <v>107684.5</v>
       </c>
-      <c r="J43">
+      <c r="K43">
         <v>11.586960934495698</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B44" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="C44" t="s">
         <v>35</v>
       </c>
-      <c r="C44" s="3" t="s">
+      <c r="D44" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D44" t="s">
-        <v>20</v>
-      </c>
       <c r="E44" t="s">
+        <v>20</v>
+      </c>
+      <c r="F44" t="s">
         <v>21</v>
       </c>
-      <c r="F44" s="7">
+      <c r="G44" s="7">
         <v>45559</v>
       </c>
-      <c r="G44" s="5">
+      <c r="H44" s="5">
         <v>0.39500000000000002</v>
       </c>
-      <c r="H44" s="5">
+      <c r="I44" s="5">
         <v>0.14849242404917484</v>
       </c>
-      <c r="I44">
+      <c r="J44">
         <v>83</v>
       </c>
-      <c r="J44">
+      <c r="K44">
         <v>4.4188406077965983</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>37</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B45" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="C45" t="s">
         <v>35</v>
       </c>
-      <c r="C45" s="3" t="s">
+      <c r="D45" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D45" t="s">
-        <v>20</v>
-      </c>
       <c r="E45" t="s">
+        <v>20</v>
+      </c>
+      <c r="F45" t="s">
         <v>21</v>
       </c>
-      <c r="F45" s="7">
+      <c r="G45" s="7">
         <v>45559</v>
       </c>
-      <c r="G45" s="5">
+      <c r="H45" s="5">
         <v>0.96367738208909315</v>
       </c>
-      <c r="H45" s="5">
+      <c r="I45" s="5">
         <v>1.7823611232106101E-2</v>
       </c>
-      <c r="I45">
+      <c r="J45">
         <v>1231</v>
       </c>
-      <c r="J45">
+      <c r="K45">
         <v>7.1155821261844538</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>24</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B46" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="C46" t="s">
         <v>35</v>
       </c>
-      <c r="C46" s="3" t="s">
+      <c r="D46" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D46" t="s">
-        <v>20</v>
-      </c>
       <c r="E46" t="s">
+        <v>20</v>
+      </c>
+      <c r="F46" t="s">
         <v>21</v>
       </c>
-      <c r="F46" s="7">
+      <c r="G46" s="7">
         <v>45559</v>
       </c>
-      <c r="G46" s="5">
+      <c r="H46" s="5">
         <v>0.86962748608203688</v>
       </c>
-      <c r="H46" s="5">
+      <c r="I46" s="5">
         <v>2.4052242632606483E-2</v>
       </c>
-      <c r="I46">
+      <c r="J46">
         <v>5758</v>
       </c>
-      <c r="J46">
+      <c r="K46">
         <v>8.6583454711721206</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>38</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B47" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="C47" t="s">
         <v>35</v>
       </c>
-      <c r="C47" s="3" t="s">
+      <c r="D47" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D47" t="s">
-        <v>20</v>
-      </c>
       <c r="E47" t="s">
+        <v>20</v>
+      </c>
+      <c r="F47" t="s">
         <v>21</v>
       </c>
-      <c r="F47" s="7">
+      <c r="G47" s="7">
         <v>45559</v>
       </c>
-      <c r="G47" s="5">
+      <c r="H47" s="5">
         <v>0.9686560090454871</v>
       </c>
-      <c r="H47" s="5">
+      <c r="I47" s="5">
         <v>1.6963783335113582E-2</v>
       </c>
-      <c r="I47">
+      <c r="J47">
         <v>5583</v>
       </c>
-      <c r="J47">
+      <c r="K47">
         <v>8.6274815453103599</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>29</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B48" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="C48" t="s">
         <v>35</v>
       </c>
-      <c r="C48" s="3" t="s">
+      <c r="D48" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D48" t="s">
-        <v>20</v>
-      </c>
       <c r="E48" t="s">
+        <v>20</v>
+      </c>
+      <c r="F48" t="s">
         <v>28</v>
       </c>
-      <c r="F48" s="7">
+      <c r="G48" s="7">
         <v>45559</v>
       </c>
-      <c r="G48" s="5">
+      <c r="H48" s="5">
         <v>0.93743990564347102</v>
       </c>
-      <c r="H48" s="5">
+      <c r="I48" s="5">
         <v>9.6868657202535593E-3</v>
       </c>
-      <c r="I48">
+      <c r="J48">
         <v>37617.000000000007</v>
       </c>
-      <c r="J48">
+      <c r="K48">
         <v>10.535211354858648</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>26</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B49" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="C49" t="s">
         <v>35</v>
       </c>
-      <c r="C49" s="3" t="s">
+      <c r="D49" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D49" t="s">
-        <v>20</v>
-      </c>
       <c r="E49" t="s">
+        <v>20</v>
+      </c>
+      <c r="F49" t="s">
         <v>28</v>
       </c>
-      <c r="F49" s="7">
+      <c r="G49" s="7">
         <v>45559</v>
       </c>
-      <c r="G49" s="5">
+      <c r="H49" s="5">
         <v>0.91912294274234774</v>
       </c>
-      <c r="H49" s="5">
+      <c r="I49" s="5">
         <v>3.1652022533213203E-3</v>
       </c>
-      <c r="I49">
+      <c r="J49">
         <v>29650</v>
       </c>
-      <c r="J49">
+      <c r="K49">
         <v>10.297217404425872</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>34</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B50" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="C50" t="s">
         <v>35</v>
       </c>
-      <c r="C50" s="3" t="s">
+      <c r="D50" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D50" t="s">
-        <v>20</v>
-      </c>
       <c r="E50" t="s">
+        <v>20</v>
+      </c>
+      <c r="F50" t="s">
         <v>32</v>
       </c>
-      <c r="F50" s="7">
+      <c r="G50" s="7">
         <v>45559</v>
       </c>
-      <c r="G50" s="5">
+      <c r="H50" s="5">
         <v>0.85194577667858884</v>
       </c>
-      <c r="H50" s="5">
+      <c r="I50" s="5">
         <v>8.2308858637758636E-2</v>
       </c>
-      <c r="I50">
+      <c r="J50">
         <v>508</v>
       </c>
-      <c r="J50">
+      <c r="K50">
         <v>6.230481447578482</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>33</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B51" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="C51" t="s">
         <v>35</v>
       </c>
-      <c r="C51" s="3" t="s">
+      <c r="D51" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D51" t="s">
-        <v>20</v>
-      </c>
       <c r="E51" t="s">
+        <v>20</v>
+      </c>
+      <c r="F51" t="s">
         <v>32</v>
       </c>
-      <c r="F51" s="7">
+      <c r="G51" s="7">
         <v>45559</v>
       </c>
-      <c r="G51" s="5">
+      <c r="H51" s="5">
         <v>0.88984944385733589</v>
       </c>
-      <c r="H51" s="5">
+      <c r="I51" s="5">
         <v>3.1957653046356706E-2</v>
       </c>
-      <c r="I51">
+      <c r="J51">
         <v>460.5</v>
       </c>
-      <c r="J51">
+      <c r="K51">
         <v>6.1323128556953614</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>30</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B52" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="C52" t="s">
         <v>35</v>
       </c>
-      <c r="C52" s="3" t="s">
+      <c r="D52" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D52" t="s">
-        <v>20</v>
-      </c>
       <c r="E52" t="s">
+        <v>20</v>
+      </c>
+      <c r="F52" t="s">
         <v>32</v>
       </c>
-      <c r="F52" s="7">
+      <c r="G52" s="7">
         <v>45559</v>
       </c>
-      <c r="G52" s="5">
+      <c r="H52" s="5">
         <v>3.896103896103896E-2</v>
       </c>
-      <c r="H52" s="5">
+      <c r="I52" s="5">
         <v>5.5099229702847856E-2</v>
       </c>
-      <c r="I52">
+      <c r="J52">
         <v>53</v>
       </c>
-      <c r="J52">
+      <c r="K52">
         <v>3.970291913552122</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>16</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B53" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="C53" t="s">
         <v>35</v>
       </c>
-      <c r="C53" t="s">
+      <c r="D53" t="s">
         <v>13</v>
       </c>
-      <c r="D53" t="s">
+      <c r="E53" t="s">
         <v>14</v>
       </c>
-      <c r="E53" t="s">
+      <c r="F53" t="s">
         <v>17</v>
       </c>
-      <c r="F53" s="7">
+      <c r="G53" s="7">
         <v>45559</v>
       </c>
-      <c r="G53" s="5">
+      <c r="H53" s="5">
         <v>0.95581264240965258</v>
       </c>
-      <c r="H53" s="5">
+      <c r="I53" s="5">
         <v>3.8828112423721162E-3</v>
       </c>
-      <c r="I53">
+      <c r="J53">
         <v>23217.5</v>
       </c>
-      <c r="J53">
+      <c r="K53">
         <v>10.052661583650163</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>18</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B54" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="C54" t="s">
         <v>35</v>
       </c>
-      <c r="C54" t="s">
+      <c r="D54" t="s">
         <v>13</v>
       </c>
-      <c r="D54" t="s">
+      <c r="E54" t="s">
         <v>14</v>
       </c>
-      <c r="E54" t="s">
+      <c r="F54" t="s">
         <v>17</v>
       </c>
-      <c r="F54" s="7">
+      <c r="G54" s="7">
         <v>45559</v>
       </c>
-      <c r="G54" s="5">
+      <c r="H54" s="5">
         <v>0.92293192635924648</v>
       </c>
-      <c r="H54" s="5">
+      <c r="I54" s="5">
         <v>4.784018943371008E-2</v>
       </c>
-      <c r="I54">
+      <c r="J54">
         <v>1464.5</v>
       </c>
-      <c r="J54">
+      <c r="K54">
         <v>7.289269166267788</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>11</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B55" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="C55" t="s">
         <v>35</v>
       </c>
-      <c r="C55" t="s">
+      <c r="D55" t="s">
         <v>13</v>
       </c>
-      <c r="D55" t="s">
+      <c r="E55" t="s">
         <v>14</v>
       </c>
-      <c r="E55" t="s">
+      <c r="F55" t="s">
         <v>15</v>
       </c>
-      <c r="F55" s="7">
+      <c r="G55" s="7">
         <v>45559</v>
       </c>
-      <c r="G55" s="5">
+      <c r="H55" s="5">
         <v>0.91595107426009725</v>
       </c>
-      <c r="H55" s="5">
+      <c r="I55" s="5">
         <v>4.8507605864199374E-2</v>
       </c>
-      <c r="I55">
+      <c r="J55">
         <v>796</v>
       </c>
-      <c r="J55">
+      <c r="K55">
         <v>6.6795991858443831</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>37</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B56" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="C56" t="s">
         <v>35</v>
       </c>
-      <c r="C56" s="3" t="s">
+      <c r="D56" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D56" t="s">
-        <v>20</v>
-      </c>
       <c r="E56" t="s">
+        <v>20</v>
+      </c>
+      <c r="F56" t="s">
         <v>21</v>
       </c>
-      <c r="F56" s="7">
+      <c r="G56" s="7">
         <v>45597</v>
       </c>
-      <c r="G56" s="5">
+      <c r="H56" s="5">
         <v>0.48622769819910916</v>
       </c>
-      <c r="H56" s="5">
+      <c r="I56" s="5">
         <v>0.15350147440561807</v>
       </c>
-      <c r="I56">
+      <c r="J56">
         <v>4012.5</v>
       </c>
-      <c r="J56">
+      <c r="K56">
         <v>8.2971697674382714</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B57" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="C57" t="s">
         <v>35</v>
       </c>
-      <c r="C57" s="3" t="s">
+      <c r="D57" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D57" t="s">
-        <v>20</v>
-      </c>
       <c r="E57" t="s">
+        <v>20</v>
+      </c>
+      <c r="F57" t="s">
         <v>21</v>
       </c>
-      <c r="F57" s="7">
+      <c r="G57" s="7">
         <v>45597</v>
       </c>
-      <c r="G57" s="5">
+      <c r="H57" s="5">
         <v>0.81315014443739864</v>
       </c>
-      <c r="H57" s="6">
+      <c r="I57" s="6">
         <v>9.9999999999999995E-8</v>
       </c>
-      <c r="I57">
+      <c r="J57">
         <v>1896</v>
       </c>
-      <c r="J57">
+      <c r="K57">
         <v>7.5475016828149668</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>19</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B58" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="C58" t="s">
         <v>35</v>
       </c>
-      <c r="C58" t="s">
+      <c r="D58" t="s">
         <v>13</v>
       </c>
-      <c r="D58" t="s">
-        <v>20</v>
-      </c>
       <c r="E58" t="s">
+        <v>20</v>
+      </c>
+      <c r="F58" t="s">
         <v>21</v>
       </c>
-      <c r="F58" s="7">
+      <c r="G58" s="7">
         <v>45597</v>
       </c>
-      <c r="G58" s="5">
+      <c r="H58" s="5">
         <v>0.96673315709442109</v>
       </c>
-      <c r="H58" s="5">
+      <c r="I58" s="5">
         <v>3.8829575846120479E-4</v>
       </c>
-      <c r="I58">
+      <c r="J58">
         <v>183420.5</v>
       </c>
-      <c r="J58">
+      <c r="K58">
         <v>12.1195366100933</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>40</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B59" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="C59" t="s">
         <v>35</v>
       </c>
-      <c r="C59" t="s">
+      <c r="D59" t="s">
         <v>13</v>
       </c>
-      <c r="D59" t="s">
+      <c r="E59" t="s">
         <v>41</v>
       </c>
-      <c r="E59" t="s">
+      <c r="F59" t="s">
         <v>17</v>
       </c>
-      <c r="F59" s="7">
+      <c r="G59" s="7">
         <v>45658</v>
       </c>
-      <c r="G59" s="5">
+      <c r="H59" s="5">
         <v>7.0823933051412729E-4</v>
       </c>
-      <c r="H59" s="5">
+      <c r="I59" s="5">
         <v>3.1909639781509049E-4</v>
       </c>
-      <c r="I59">
+      <c r="J59">
         <v>1342.26</v>
       </c>
-      <c r="J59">
+      <c r="K59">
         <v>7.2021100394518678</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>42</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B60" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="C60" t="s">
         <v>35</v>
       </c>
-      <c r="C60" t="s">
+      <c r="D60" t="s">
         <v>43</v>
       </c>
-      <c r="D60" t="s">
+      <c r="E60" t="s">
         <v>41</v>
       </c>
-      <c r="E60" t="s">
+      <c r="F60" t="s">
         <v>21</v>
       </c>
-      <c r="F60" s="7">
+      <c r="G60" s="7">
         <v>45658</v>
       </c>
-      <c r="G60" s="5">
+      <c r="H60" s="5">
         <v>0.99085904139818637</v>
       </c>
-      <c r="H60" s="5">
+      <c r="I60" s="5">
         <v>2.6146095942979042E-4</v>
       </c>
-      <c r="I60">
+      <c r="J60">
         <v>874.98199999999997</v>
       </c>
-      <c r="J60">
+      <c r="K60">
         <v>6.7742033147174485</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>30</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B61" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="C61" t="s">
         <v>35</v>
       </c>
-      <c r="C61" s="3" t="s">
+      <c r="D61" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D61" t="s">
-        <v>20</v>
-      </c>
       <c r="E61" t="s">
+        <v>20</v>
+      </c>
+      <c r="F61" t="s">
         <v>32</v>
       </c>
-      <c r="F61" s="7">
+      <c r="G61" s="7">
         <v>45723</v>
       </c>
-      <c r="G61" s="5">
+      <c r="H61" s="5">
         <v>2.6940280653199047E-2</v>
       </c>
-      <c r="H61" s="5">
+      <c r="I61" s="5">
         <v>6.929615889094169E-3</v>
       </c>
-      <c r="I61">
+      <c r="J61">
         <v>1773.5000000000002</v>
       </c>
-      <c r="J61">
+      <c r="K61">
         <v>7.4807102742136768</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B62" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="C62" t="s">
         <v>35</v>
       </c>
-      <c r="C62" s="3" t="s">
+      <c r="D62" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D62" t="s">
-        <v>20</v>
-      </c>
       <c r="E62" t="s">
+        <v>20</v>
+      </c>
+      <c r="F62" t="s">
         <v>21</v>
       </c>
-      <c r="F62" s="7">
+      <c r="G62" s="7">
         <v>45755</v>
       </c>
-      <c r="G62" s="8">
+      <c r="H62" s="8">
         <v>0.96593350559467406</v>
       </c>
-      <c r="H62" s="8">
+      <c r="I62" s="8">
         <v>9.4596360400741753E-3</v>
       </c>
-      <c r="I62" s="9">
+      <c r="J62" s="9">
         <v>503286.538</v>
       </c>
-      <c r="J62">
+      <c r="K62">
         <v>13.128914944940012</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B63" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="C63" t="s">
         <v>35</v>
       </c>
-      <c r="C63" s="3" t="s">
+      <c r="D63" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D63" t="s">
-        <v>20</v>
-      </c>
       <c r="E63" t="s">
+        <v>20</v>
+      </c>
+      <c r="F63" t="s">
         <v>21</v>
       </c>
-      <c r="F63" s="7">
+      <c r="G63" s="7">
         <v>45755</v>
       </c>
-      <c r="G63" s="5">
+      <c r="H63" s="5">
         <v>0.91050795418032493</v>
       </c>
-      <c r="H63" s="5">
+      <c r="I63" s="5">
         <v>4.6140953608833489E-2</v>
       </c>
-      <c r="I63">
+      <c r="J63">
         <v>711958.26086956519</v>
       </c>
-      <c r="J63">
+      <c r="K63">
         <v>13.475774566301547</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>42</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B64" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="C64" t="s">
         <v>35</v>
       </c>
-      <c r="C64" t="s">
+      <c r="D64" t="s">
         <v>43</v>
       </c>
-      <c r="D64" t="s">
+      <c r="E64" t="s">
         <v>41</v>
       </c>
-      <c r="E64" t="s">
+      <c r="F64" t="s">
         <v>21</v>
       </c>
-      <c r="F64" s="7">
+      <c r="G64" s="7">
         <v>45775</v>
       </c>
-      <c r="G64" s="5">
+      <c r="H64" s="5">
         <v>0.55694479958471566</v>
       </c>
-      <c r="H64" s="5">
+      <c r="I64" s="5">
         <v>0.11175743092096395</v>
       </c>
-      <c r="I64">
+      <c r="J64">
         <v>10734</v>
       </c>
-      <c r="J64">
+      <c r="K64">
         <v>9.2811715527367742</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>42</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B65" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="C65" t="s">
         <v>35</v>
       </c>
-      <c r="C65" t="s">
+      <c r="D65" t="s">
         <v>43</v>
       </c>
-      <c r="D65" t="s">
+      <c r="E65" t="s">
         <v>41</v>
       </c>
-      <c r="E65" t="s">
+      <c r="F65" t="s">
         <v>21</v>
       </c>
-      <c r="F65" s="7">
+      <c r="G65" s="7">
         <v>45762</v>
       </c>
-      <c r="G65" s="5">
+      <c r="H65" s="5">
         <v>0.96950591524683905</v>
       </c>
-      <c r="H65" s="5">
+      <c r="I65" s="5">
         <v>8.7015378747240402E-3</v>
       </c>
-      <c r="I65">
+      <c r="J65">
         <v>371654</v>
       </c>
-      <c r="J65">
+      <c r="K65">
         <v>12.825718592909997</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>40</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B66" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="C66" t="s">
         <v>35</v>
       </c>
-      <c r="C66" t="s">
+      <c r="D66" t="s">
         <v>13</v>
       </c>
-      <c r="D66" t="s">
+      <c r="E66" t="s">
         <v>41</v>
       </c>
-      <c r="E66" t="s">
+      <c r="F66" t="s">
         <v>17</v>
       </c>
-      <c r="F66" s="7">
+      <c r="G66" s="7">
         <v>45776</v>
       </c>
-      <c r="G66" s="5">
+      <c r="H66" s="5">
         <v>-2.222222222222222E-2</v>
       </c>
-      <c r="H66" s="5">
+      <c r="I66" s="5">
         <v>3.1426968052735441E-2</v>
       </c>
-      <c r="I66">
+      <c r="J66">
         <v>129</v>
       </c>
-      <c r="J66">
+      <c r="K66">
         <v>4.8598124043616719</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>18</v>
       </c>
-      <c r="B67" t="s">
+      <c r="B67" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="C67" t="s">
         <v>35</v>
       </c>
-      <c r="C67" t="s">
+      <c r="D67" t="s">
         <v>13</v>
       </c>
-      <c r="D67" t="s">
+      <c r="E67" t="s">
         <v>14</v>
       </c>
-      <c r="E67" t="s">
+      <c r="F67" t="s">
         <v>17</v>
       </c>
-      <c r="F67" s="7">
+      <c r="G67" s="7">
         <v>45748</v>
       </c>
-      <c r="G67" s="8">
+      <c r="H67" s="8">
         <v>0.96863140999999997</v>
       </c>
-      <c r="H67" s="8">
+      <c r="I67" s="8">
         <v>1.2786189999999999E-2</v>
       </c>
-      <c r="I67">
+      <c r="J67">
         <v>1568</v>
       </c>
-      <c r="J67">
+      <c r="K67">
         <v>7.357556200910353</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>18</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B68" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="C68" t="s">
         <v>35</v>
       </c>
-      <c r="C68" t="s">
+      <c r="D68" t="s">
         <v>13</v>
       </c>
-      <c r="D68" t="s">
+      <c r="E68" t="s">
         <v>14</v>
       </c>
-      <c r="E68" t="s">
+      <c r="F68" t="s">
         <v>17</v>
       </c>
-      <c r="F68" s="7">
+      <c r="G68" s="7">
         <v>45748</v>
       </c>
-      <c r="G68" s="8">
+      <c r="H68" s="8">
         <v>0.97675162000000004</v>
       </c>
-      <c r="H68" s="8">
+      <c r="I68" s="8">
         <v>9.1131999999999997E-4</v>
       </c>
-      <c r="I68">
+      <c r="J68">
         <v>2129</v>
       </c>
-      <c r="J68">
+      <c r="K68">
         <v>7.6634076648934792</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>18</v>
       </c>
-      <c r="B69" t="s">
+      <c r="B69" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="C69" t="s">
         <v>35</v>
       </c>
-      <c r="C69" t="s">
+      <c r="D69" t="s">
         <v>13</v>
       </c>
-      <c r="D69" t="s">
+      <c r="E69" t="s">
         <v>14</v>
       </c>
-      <c r="E69" t="s">
+      <c r="F69" t="s">
         <v>17</v>
       </c>
-      <c r="F69" s="7">
+      <c r="G69" s="7">
         <v>45748</v>
       </c>
-      <c r="G69" s="8">
+      <c r="H69" s="8">
         <v>0.96854088000000005</v>
       </c>
-      <c r="H69" s="8">
+      <c r="I69" s="8">
         <v>2.7099099999999998E-3</v>
       </c>
-      <c r="I69">
+      <c r="J69">
         <v>1747</v>
       </c>
-      <c r="J69">
+      <c r="K69">
         <v>7.4656553101340561</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>18</v>
       </c>
-      <c r="B70" t="s">
+      <c r="B70" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="C70" t="s">
         <v>35</v>
       </c>
-      <c r="C70" t="s">
+      <c r="D70" t="s">
         <v>13</v>
       </c>
-      <c r="D70" t="s">
+      <c r="E70" t="s">
         <v>14</v>
       </c>
-      <c r="E70" t="s">
+      <c r="F70" t="s">
         <v>17</v>
       </c>
-      <c r="F70" s="7">
+      <c r="G70" s="7">
         <v>45818</v>
       </c>
-      <c r="G70" s="8">
+      <c r="H70" s="8">
         <v>0.91819667000000005</v>
       </c>
-      <c r="H70" s="8">
+      <c r="I70" s="8">
         <v>2.808122E-2</v>
       </c>
-      <c r="I70">
+      <c r="J70">
         <v>4345</v>
       </c>
-      <c r="J70">
+      <c r="K70">
         <v>8.3767810376994927</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>16</v>
       </c>
-      <c r="B71" t="s">
+      <c r="B71" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="C71" t="s">
         <v>35</v>
       </c>
-      <c r="C71" t="s">
+      <c r="D71" t="s">
         <v>13</v>
       </c>
-      <c r="D71" t="s">
+      <c r="E71" t="s">
         <v>14</v>
       </c>
-      <c r="E71" t="s">
+      <c r="F71" t="s">
         <v>17</v>
       </c>
-      <c r="F71" s="7">
+      <c r="G71" s="7">
         <v>45818</v>
       </c>
-      <c r="G71" s="8">
+      <c r="H71" s="8">
         <v>0.87338434740954707</v>
       </c>
-      <c r="H71" s="8">
+      <c r="I71" s="8">
         <v>5.0942614135763481E-2</v>
       </c>
-      <c r="I71">
+      <c r="J71">
         <v>2035</v>
       </c>
-      <c r="J71">
+      <c r="K71">
         <v>7.6182510978766951</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>38</v>
       </c>
-      <c r="B72" t="s">
+      <c r="B72" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="C72" t="s">
         <v>35</v>
       </c>
-      <c r="C72" s="3" t="s">
+      <c r="D72" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D72" t="s">
-        <v>20</v>
-      </c>
       <c r="E72" t="s">
+        <v>20</v>
+      </c>
+      <c r="F72" t="s">
         <v>21</v>
       </c>
-      <c r="F72" s="7">
+      <c r="G72" s="7">
         <v>45820</v>
       </c>
-      <c r="G72" s="8">
+      <c r="H72" s="8">
         <v>0.94924962999999996</v>
       </c>
-      <c r="H72" s="8">
+      <c r="I72" s="8">
         <v>4.9585129999999998E-2</v>
       </c>
-      <c r="I72">
+      <c r="J72">
         <v>859</v>
       </c>
-      <c r="J72">
+      <c r="K72">
         <v>6.7557689219842549</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:L72" xr:uid="{D350FA7F-BC6A-F048-8F8F-5AAFD6033654}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86BEE0B4-46AA-5543-A409-0F4EECDF63D9}">
-  <dimension ref="A1:G44"/>
+  <dimension ref="A1:H44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="A8:XFD8"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.33203125" customWidth="1"/>
+    <col min="3" max="3" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1</v>
       </c>
       <c r="B1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" s="7">
+        <v>45536</v>
+      </c>
+      <c r="G2" s="5">
+        <v>0.57384957751539578</v>
+      </c>
+      <c r="H2" s="5">
+        <v>0.20538426753164196</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F3" s="12">
+        <v>45505</v>
+      </c>
+      <c r="G3" s="5">
+        <v>0.41530719511755587</v>
+      </c>
+      <c r="H3" s="5">
+        <v>4.5233443329828663E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" s="7">
+        <v>45536</v>
+      </c>
+      <c r="G4" s="5">
+        <v>0.67660833713330293</v>
+      </c>
+      <c r="H4" s="5">
+        <v>0.33198362434469864</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" s="12">
+        <v>45505</v>
+      </c>
+      <c r="G5" s="5">
+        <v>0.70369964319173961</v>
+      </c>
+      <c r="H5" s="5">
+        <v>6.0679225247833965E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="C6" t="s">
         <v>13</v>
       </c>
-      <c r="C2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="D6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="7">
+        <v>45536</v>
+      </c>
+      <c r="G6" s="5">
+        <v>3.0911396090108373E-2</v>
+      </c>
+      <c r="H6" s="5">
+        <v>9.944643495296621E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="C7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="12">
+        <v>45505</v>
+      </c>
+      <c r="G7" s="5">
+        <v>8.2014704918344783E-3</v>
+      </c>
+      <c r="H7" s="5">
+        <v>9.6039713335741034E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="C8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="7">
+        <v>45748</v>
+      </c>
+      <c r="G8" s="5">
+        <v>0.17699345941599393</v>
+      </c>
+      <c r="H8" s="5">
+        <v>1.1941589724821271E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="C9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="7">
+        <v>45748</v>
+      </c>
+      <c r="G9" s="5">
+        <v>0.26390901719337523</v>
+      </c>
+      <c r="H9" s="5">
+        <v>4.7737674072742368E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="C10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" s="7">
+        <v>45748</v>
+      </c>
+      <c r="G10" s="5">
+        <v>0.28001761540461234</v>
+      </c>
+      <c r="H10" s="5">
+        <v>2.2290062886233756E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="C11" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="7">
+      <c r="F11" s="7">
+        <v>45658</v>
+      </c>
+      <c r="G11" s="5">
+        <v>0.48023017961974945</v>
+      </c>
+      <c r="H11" s="5">
+        <v>1.445812359513262E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="C12" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F12" s="7">
+        <v>45762</v>
+      </c>
+      <c r="G12" s="5">
+        <v>0.91435638311895318</v>
+      </c>
+      <c r="H12" s="5">
+        <v>6.1985651793379677E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>42</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="C13" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" t="s">
+        <v>21</v>
+      </c>
+      <c r="F13" s="7">
+        <v>45775</v>
+      </c>
+      <c r="G13" s="5">
+        <v>0.43490581589321459</v>
+      </c>
+      <c r="H13" s="5">
+        <v>2.8218669012584109E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="C14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14" t="s">
+        <v>21</v>
+      </c>
+      <c r="F14" s="7">
         <v>45536</v>
       </c>
-      <c r="F2" s="5">
-        <v>0.81661738170736542</v>
-      </c>
-      <c r="G2" s="5">
-        <v>7.6861050116843535E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="G14" s="5">
+        <v>8.8439781035819474E-3</v>
+      </c>
+      <c r="H14" s="5">
+        <v>1.8034715433451368E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
         <v>23</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B15" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="C15" t="s">
         <v>13</v>
       </c>
-      <c r="C3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="D15" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="7">
+      <c r="F15" s="12">
+        <v>45505</v>
+      </c>
+      <c r="G15" s="5">
+        <v>7.1142969597142326E-4</v>
+      </c>
+      <c r="H15" s="5">
+        <v>3.4011547325758584E-4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>20</v>
+      </c>
+      <c r="E16" t="s">
+        <v>21</v>
+      </c>
+      <c r="F16" s="7">
         <v>45536</v>
       </c>
-      <c r="F3" s="5">
-        <v>8.8439781035819474E-3</v>
-      </c>
-      <c r="G3" s="5">
-        <v>1.8034715433451368E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="G16" s="5">
+        <v>0.1471631205673759</v>
+      </c>
+      <c r="H16" s="5">
+        <v>2.7582179407985744E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17" t="s">
+        <v>21</v>
+      </c>
+      <c r="F17" s="7">
+        <v>45597</v>
+      </c>
+      <c r="G17" s="10">
+        <v>0.68206590726421101</v>
+      </c>
+      <c r="H17" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18" t="s">
+        <v>21</v>
+      </c>
+      <c r="F18" s="7">
+        <v>45755</v>
+      </c>
+      <c r="G18" s="5">
+        <v>0.97879293151331237</v>
+      </c>
+      <c r="H18" s="5">
+        <v>5.5615310479452959E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>20</v>
+      </c>
+      <c r="E19" t="s">
+        <v>21</v>
+      </c>
+      <c r="F19" s="7">
+        <v>45536</v>
+      </c>
+      <c r="G19" s="5">
+        <v>0.93349185687857927</v>
+      </c>
+      <c r="H19" s="5">
+        <v>5.1651680422318838E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20" t="s">
+        <v>21</v>
+      </c>
+      <c r="F20" s="12">
+        <v>45505</v>
+      </c>
+      <c r="G20" s="5">
+        <v>0.98864830811370163</v>
+      </c>
+      <c r="H20" s="5">
+        <v>8.4753246374540334E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="C21" t="s">
+        <v>13</v>
+      </c>
+      <c r="D21" t="s">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>17</v>
+      </c>
+      <c r="F21" s="7">
+        <v>45658</v>
+      </c>
+      <c r="G21" s="5">
+        <v>4.344624659744131E-5</v>
+      </c>
+      <c r="H21" s="5">
+        <v>3.7986587813519178E-5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>40</v>
+      </c>
+      <c r="B22" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="C22" t="s">
+        <v>13</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22" t="s">
+        <v>17</v>
+      </c>
+      <c r="F22" s="7">
+        <v>45776</v>
+      </c>
+      <c r="G22" s="5">
+        <v>-2.222222222222222E-2</v>
+      </c>
+      <c r="H22" s="5">
+        <v>3.1426968052735441E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>16</v>
+      </c>
+      <c r="B23" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="C23" t="s">
+        <v>13</v>
+      </c>
+      <c r="D23" t="s">
+        <v>14</v>
+      </c>
+      <c r="E23" t="s">
+        <v>17</v>
+      </c>
+      <c r="F23" s="7">
+        <v>45536</v>
+      </c>
+      <c r="G23" s="5">
+        <v>1.1281143376883296E-4</v>
+      </c>
+      <c r="H23" s="5">
+        <v>2.0617576761588783E-4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>16</v>
+      </c>
+      <c r="B24" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="C24" t="s">
+        <v>13</v>
+      </c>
+      <c r="D24" t="s">
+        <v>14</v>
+      </c>
+      <c r="E24" t="s">
+        <v>17</v>
+      </c>
+      <c r="F24" s="12">
+        <v>45505</v>
+      </c>
+      <c r="G24" s="5">
+        <v>6.6666666666666664E-4</v>
+      </c>
+      <c r="H24" s="5">
+        <v>9.4280904158206339E-4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>16</v>
+      </c>
+      <c r="B25" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="C25" t="s">
+        <v>13</v>
+      </c>
+      <c r="D25" t="s">
+        <v>14</v>
+      </c>
+      <c r="E25" t="s">
+        <v>17</v>
+      </c>
+      <c r="F25" s="7">
+        <v>45597</v>
+      </c>
+      <c r="G25" s="10">
+        <v>-1.2305168170631668E-3</v>
+      </c>
+      <c r="H25" s="10">
+        <v>1.7402135714189033E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26" t="s">
+        <v>28</v>
+      </c>
+      <c r="F26" s="7">
+        <v>45536</v>
+      </c>
+      <c r="G26" s="5">
+        <v>-4.0676808544383371E-4</v>
+      </c>
+      <c r="H26" s="5">
+        <v>4.0801529561465837E-5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>29</v>
+      </c>
+      <c r="B27" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>20</v>
+      </c>
+      <c r="E27" t="s">
+        <v>28</v>
+      </c>
+      <c r="F27" s="12">
+        <v>45505</v>
+      </c>
+      <c r="G27" s="5">
+        <v>0</v>
+      </c>
+      <c r="H27" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>20</v>
+      </c>
+      <c r="E28" t="s">
+        <v>28</v>
+      </c>
+      <c r="F28" s="7">
+        <v>45597</v>
+      </c>
+      <c r="G28" s="10">
+        <v>8.8043643709669853E-4</v>
+      </c>
+      <c r="H28" s="10">
+        <v>4.9262934214200631E-4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>26</v>
+      </c>
+      <c r="B29" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>20</v>
+      </c>
+      <c r="E29" t="s">
+        <v>28</v>
+      </c>
+      <c r="F29" s="7">
+        <v>45536</v>
+      </c>
+      <c r="G29" s="5">
+        <v>8.5583832845603225E-3</v>
+      </c>
+      <c r="H29" s="5">
+        <v>3.8745964674995097E-3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>26</v>
+      </c>
+      <c r="B30" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>20</v>
+      </c>
+      <c r="E30" t="s">
+        <v>28</v>
+      </c>
+      <c r="F30" s="12">
+        <v>45505</v>
+      </c>
+      <c r="G30" s="5">
+        <v>4.6323754760596702E-3</v>
+      </c>
+      <c r="H30" s="5">
+        <v>4.3805282054369693E-4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>11</v>
+      </c>
+      <c r="B31" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="C31" t="s">
+        <v>13</v>
+      </c>
+      <c r="D31" t="s">
+        <v>14</v>
+      </c>
+      <c r="E31" t="s">
+        <v>15</v>
+      </c>
+      <c r="F31" s="7">
+        <v>45536</v>
+      </c>
+      <c r="G31" s="5">
+        <v>0.88827359176675091</v>
+      </c>
+      <c r="H31" s="5">
+        <v>2.8140425259772887E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>11</v>
+      </c>
+      <c r="B32" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="C32" t="s">
+        <v>13</v>
+      </c>
+      <c r="D32" t="s">
+        <v>14</v>
+      </c>
+      <c r="E32" t="s">
+        <v>15</v>
+      </c>
+      <c r="F32" s="12">
+        <v>45505</v>
+      </c>
+      <c r="G32" s="5">
+        <v>0.9638300450160171</v>
+      </c>
+      <c r="H32" s="5">
+        <v>4.9907673395026726E-3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
         <v>22</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B33" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="C33" t="s">
         <v>13</v>
       </c>
-      <c r="C4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="D33" t="s">
+        <v>20</v>
+      </c>
+      <c r="E33" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="7">
+      <c r="F33" s="7">
         <v>45536</v>
       </c>
-      <c r="F4" s="5">
+      <c r="G33" s="5">
         <v>3.5499544646104347E-4</v>
       </c>
-      <c r="G4" s="5">
+      <c r="H33" s="5">
         <v>9.6402425027867139E-5</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" t="s">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>22</v>
+      </c>
+      <c r="B34" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="C34" t="s">
+        <v>13</v>
+      </c>
+      <c r="D34" t="s">
+        <v>20</v>
+      </c>
+      <c r="E34" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="7">
+      <c r="F34" s="12">
+        <v>45505</v>
+      </c>
+      <c r="G34" s="5">
+        <v>0</v>
+      </c>
+      <c r="H34" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>30</v>
+      </c>
+      <c r="B35" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D35" t="s">
+        <v>20</v>
+      </c>
+      <c r="E35" t="s">
+        <v>32</v>
+      </c>
+      <c r="F35" s="7">
         <v>45536</v>
       </c>
-      <c r="F5" s="5">
-        <v>0.51428571428571423</v>
-      </c>
-      <c r="G5" s="5">
-        <v>0.12121830534626601</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>37</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" s="7">
-        <v>45536</v>
-      </c>
-      <c r="F6" s="5">
-        <v>0.87570134058324944</v>
-      </c>
-      <c r="G6" s="5">
-        <v>1.2418039015700804E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7" s="7">
-        <v>45536</v>
-      </c>
-      <c r="F7" s="5">
-        <v>0.1471631205673759</v>
-      </c>
-      <c r="G7" s="5">
-        <v>2.7582179407985744E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>24</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8" s="7">
-        <v>45536</v>
-      </c>
-      <c r="F8" s="5">
-        <v>0.71843396450042585</v>
-      </c>
-      <c r="G8" s="5">
-        <v>7.534590099211691E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>38</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9" s="7">
-        <v>45536</v>
-      </c>
-      <c r="F9" s="5">
-        <v>0.93349185687857927</v>
-      </c>
-      <c r="G9" s="5">
-        <v>5.1651680422318838E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>26</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" t="s">
-        <v>28</v>
-      </c>
-      <c r="E10" s="7">
-        <v>45536</v>
-      </c>
-      <c r="F10" s="5">
-        <v>8.5583832845603225E-3</v>
-      </c>
-      <c r="G10" s="5">
-        <v>3.8745964674995097E-3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>29</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C11" t="s">
-        <v>20</v>
-      </c>
-      <c r="D11" t="s">
-        <v>28</v>
-      </c>
-      <c r="E11" s="7">
-        <v>45536</v>
-      </c>
-      <c r="F11" s="5">
-        <v>-4.0676808544383371E-4</v>
-      </c>
-      <c r="G11" s="5">
-        <v>4.0801529561465837E-5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>34</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C12" t="s">
-        <v>20</v>
-      </c>
-      <c r="D12" t="s">
-        <v>32</v>
-      </c>
-      <c r="E12" s="7">
-        <v>45536</v>
-      </c>
-      <c r="F12" s="5">
-        <v>0.57384957751539578</v>
-      </c>
-      <c r="G12" s="5">
-        <v>0.20538426753164196</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>33</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C13" t="s">
-        <v>20</v>
-      </c>
-      <c r="D13" t="s">
-        <v>32</v>
-      </c>
-      <c r="E13" s="7">
-        <v>45536</v>
-      </c>
-      <c r="F13" s="5">
-        <v>0.67660833713330293</v>
-      </c>
-      <c r="G13" s="5">
-        <v>0.33198362434469864</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>30</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C14" t="s">
-        <v>20</v>
-      </c>
-      <c r="D14" t="s">
-        <v>32</v>
-      </c>
-      <c r="E14" s="7">
-        <v>45536</v>
-      </c>
-      <c r="F14" s="5">
+      <c r="G35" s="5">
         <v>0</v>
       </c>
-      <c r="G14" s="5">
+      <c r="H35" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>16</v>
-      </c>
-      <c r="B15" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15" t="s">
-        <v>14</v>
-      </c>
-      <c r="D15" t="s">
-        <v>17</v>
-      </c>
-      <c r="E15" s="7">
-        <v>45536</v>
-      </c>
-      <c r="F15" s="5">
-        <v>1.1281143376883296E-4</v>
-      </c>
-      <c r="G15" s="5">
-        <v>2.0617576761588783E-4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>18</v>
-      </c>
-      <c r="B16" t="s">
-        <v>13</v>
-      </c>
-      <c r="C16" t="s">
-        <v>14</v>
-      </c>
-      <c r="D16" t="s">
-        <v>17</v>
-      </c>
-      <c r="E16" s="7">
-        <v>45536</v>
-      </c>
-      <c r="F16" s="5">
-        <v>3.0911396090108373E-2</v>
-      </c>
-      <c r="G16" s="5">
-        <v>9.944643495296621E-3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>11</v>
-      </c>
-      <c r="B17" t="s">
-        <v>13</v>
-      </c>
-      <c r="C17" t="s">
-        <v>14</v>
-      </c>
-      <c r="D17" t="s">
-        <v>15</v>
-      </c>
-      <c r="E17" s="7">
-        <v>45536</v>
-      </c>
-      <c r="F17" s="5">
-        <v>0.88827359176675091</v>
-      </c>
-      <c r="G17" s="5">
-        <v>2.8140425259772887E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18" t="s">
-        <v>13</v>
-      </c>
-      <c r="C18" t="s">
-        <v>20</v>
-      </c>
-      <c r="D18" t="s">
-        <v>21</v>
-      </c>
-      <c r="E18" s="12">
-        <v>45505</v>
-      </c>
-      <c r="F18" s="5">
-        <v>7.1142969597142326E-4</v>
-      </c>
-      <c r="G18" s="5">
-        <v>3.4011547325758584E-4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>22</v>
-      </c>
-      <c r="B19" t="s">
-        <v>13</v>
-      </c>
-      <c r="C19" t="s">
-        <v>20</v>
-      </c>
-      <c r="D19" t="s">
-        <v>21</v>
-      </c>
-      <c r="E19" s="12">
-        <v>45505</v>
-      </c>
-      <c r="F19" s="5">
-        <v>0</v>
-      </c>
-      <c r="G19" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>19</v>
-      </c>
-      <c r="B20" t="s">
-        <v>13</v>
-      </c>
-      <c r="C20" t="s">
-        <v>20</v>
-      </c>
-      <c r="D20" t="s">
-        <v>21</v>
-      </c>
-      <c r="E20" s="12">
-        <v>45505</v>
-      </c>
-      <c r="F20" s="5">
-        <v>0.10059142395264772</v>
-      </c>
-      <c r="G20" s="5">
-        <v>3.6351544997143381E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>38</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C21" t="s">
-        <v>20</v>
-      </c>
-      <c r="D21" t="s">
-        <v>21</v>
-      </c>
-      <c r="E21" s="12">
-        <v>45505</v>
-      </c>
-      <c r="F21" s="5">
-        <v>0.98864830811370163</v>
-      </c>
-      <c r="G21" s="5">
-        <v>8.4753246374540334E-3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>26</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C22" t="s">
-        <v>20</v>
-      </c>
-      <c r="D22" t="s">
-        <v>28</v>
-      </c>
-      <c r="E22" s="12">
-        <v>45505</v>
-      </c>
-      <c r="F22" s="5">
-        <v>4.6323754760596702E-3</v>
-      </c>
-      <c r="G22" s="5">
-        <v>4.3805282054369693E-4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>29</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C23" t="s">
-        <v>20</v>
-      </c>
-      <c r="D23" t="s">
-        <v>28</v>
-      </c>
-      <c r="E23" s="12">
-        <v>45505</v>
-      </c>
-      <c r="F23" s="5">
-        <v>0</v>
-      </c>
-      <c r="G23" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>34</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C24" t="s">
-        <v>20</v>
-      </c>
-      <c r="D24" t="s">
-        <v>32</v>
-      </c>
-      <c r="E24" s="12">
-        <v>45505</v>
-      </c>
-      <c r="F24" s="5">
-        <v>0.41530719511755587</v>
-      </c>
-      <c r="G24" s="5">
-        <v>4.5233443329828663E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>33</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C25" t="s">
-        <v>20</v>
-      </c>
-      <c r="D25" t="s">
-        <v>32</v>
-      </c>
-      <c r="E25" s="12">
-        <v>45505</v>
-      </c>
-      <c r="F25" s="5">
-        <v>0.70369964319173961</v>
-      </c>
-      <c r="G25" s="5">
-        <v>6.0679225247833965E-2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>11</v>
-      </c>
-      <c r="B26" t="s">
-        <v>13</v>
-      </c>
-      <c r="C26" t="s">
-        <v>14</v>
-      </c>
-      <c r="D26" t="s">
-        <v>15</v>
-      </c>
-      <c r="E26" s="12">
-        <v>45505</v>
-      </c>
-      <c r="F26" s="5">
-        <v>0.9638300450160171</v>
-      </c>
-      <c r="G26" s="5">
-        <v>4.9907673395026726E-3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>16</v>
-      </c>
-      <c r="B27" t="s">
-        <v>13</v>
-      </c>
-      <c r="C27" t="s">
-        <v>14</v>
-      </c>
-      <c r="D27" t="s">
-        <v>17</v>
-      </c>
-      <c r="E27" s="12">
-        <v>45505</v>
-      </c>
-      <c r="F27" s="5">
-        <v>6.6666666666666664E-4</v>
-      </c>
-      <c r="G27" s="5">
-        <v>9.4280904158206339E-4</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>18</v>
-      </c>
-      <c r="B28" t="s">
-        <v>13</v>
-      </c>
-      <c r="C28" t="s">
-        <v>14</v>
-      </c>
-      <c r="D28" t="s">
-        <v>17</v>
-      </c>
-      <c r="E28" s="12">
-        <v>45505</v>
-      </c>
-      <c r="F28" s="5">
-        <v>8.2014704918344783E-3</v>
-      </c>
-      <c r="G28" s="5">
-        <v>9.6039713335741034E-3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>37</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C29" t="s">
-        <v>20</v>
-      </c>
-      <c r="D29" t="s">
-        <v>21</v>
-      </c>
-      <c r="E29" s="7">
-        <v>45597</v>
-      </c>
-      <c r="F29" s="10">
-        <v>0.39696726181470293</v>
-      </c>
-      <c r="G29" s="10">
-        <v>4.2865438304187384E-3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A30" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C30" t="s">
-        <v>20</v>
-      </c>
-      <c r="D30" t="s">
-        <v>21</v>
-      </c>
-      <c r="E30" s="7">
-        <v>45597</v>
-      </c>
-      <c r="F30" s="10">
-        <v>0.68206590726421101</v>
-      </c>
-      <c r="G30" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>19</v>
-      </c>
-      <c r="B31" t="s">
-        <v>13</v>
-      </c>
-      <c r="C31" t="s">
-        <v>20</v>
-      </c>
-      <c r="D31" t="s">
-        <v>21</v>
-      </c>
-      <c r="E31" s="7">
-        <v>45597</v>
-      </c>
-      <c r="F31" s="10">
-        <v>0.68975343109294163</v>
-      </c>
-      <c r="G31" s="10">
-        <v>2.5251115513233609E-2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>16</v>
-      </c>
-      <c r="B32" t="s">
-        <v>13</v>
-      </c>
-      <c r="C32" t="s">
-        <v>14</v>
-      </c>
-      <c r="D32" t="s">
-        <v>17</v>
-      </c>
-      <c r="E32" s="7">
-        <v>45597</v>
-      </c>
-      <c r="F32" s="10">
-        <v>-1.2305168170631668E-3</v>
-      </c>
-      <c r="G32" s="10">
-        <v>1.7402135714189033E-3</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>29</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C33" t="s">
-        <v>20</v>
-      </c>
-      <c r="D33" t="s">
-        <v>28</v>
-      </c>
-      <c r="E33" s="7">
-        <v>45597</v>
-      </c>
-      <c r="F33" s="10">
-        <v>8.8043643709669853E-4</v>
-      </c>
-      <c r="G33" s="10">
-        <v>4.9262934214200631E-4</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>40</v>
-      </c>
-      <c r="B34" t="s">
-        <v>13</v>
-      </c>
-      <c r="C34" t="s">
-        <v>20</v>
-      </c>
-      <c r="D34" t="s">
-        <v>17</v>
-      </c>
-      <c r="E34" s="7">
-        <v>45658</v>
-      </c>
-      <c r="F34" s="5">
-        <v>4.344624659744131E-5</v>
-      </c>
-      <c r="G34" s="5">
-        <v>3.7986587813519178E-5</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>42</v>
-      </c>
-      <c r="B35" t="s">
-        <v>43</v>
-      </c>
-      <c r="C35" t="s">
-        <v>20</v>
-      </c>
-      <c r="D35" t="s">
-        <v>21</v>
-      </c>
-      <c r="E35" s="7">
-        <v>45658</v>
-      </c>
-      <c r="F35" s="5">
-        <v>0.48023017961974945</v>
-      </c>
-      <c r="G35" s="5">
-        <v>1.445812359513262E-2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>30</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="C36" t="s">
         <v>31</v>
       </c>
-      <c r="C36" t="s">
-        <v>20</v>
-      </c>
       <c r="D36" t="s">
+        <v>20</v>
+      </c>
+      <c r="E36" t="s">
         <v>32</v>
       </c>
-      <c r="E36" s="7">
+      <c r="F36" s="7">
         <v>45723</v>
       </c>
-      <c r="F36" s="5">
+      <c r="G36" s="5">
         <v>1.1967302136435331E-2</v>
       </c>
-      <c r="G36" s="11">
+      <c r="H36" s="11">
         <v>5.6161651229300474E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A37" s="3" t="s">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>24</v>
+      </c>
+      <c r="B37" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D37" t="s">
+        <v>20</v>
+      </c>
+      <c r="E37" t="s">
+        <v>21</v>
+      </c>
+      <c r="F37" s="7">
+        <v>45536</v>
+      </c>
+      <c r="G37" s="5">
+        <v>0.71843396450042585</v>
+      </c>
+      <c r="H37" s="5">
+        <v>7.534590099211691E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>37</v>
+      </c>
+      <c r="B38" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D38" t="s">
+        <v>20</v>
+      </c>
+      <c r="E38" t="s">
+        <v>21</v>
+      </c>
+      <c r="F38" s="7">
+        <v>45536</v>
+      </c>
+      <c r="G38" s="5">
+        <v>0.87570134058324944</v>
+      </c>
+      <c r="H38" s="5">
+        <v>1.2418039015700804E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>37</v>
+      </c>
+      <c r="B39" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D39" t="s">
+        <v>20</v>
+      </c>
+      <c r="E39" t="s">
+        <v>21</v>
+      </c>
+      <c r="F39" s="7">
+        <v>45597</v>
+      </c>
+      <c r="G39" s="10">
+        <v>0.39696726181470293</v>
+      </c>
+      <c r="H39" s="10">
+        <v>4.2865438304187384E-3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A40" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B37" s="3" t="s">
+      <c r="B40" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="C40" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C37" t="s">
-        <v>20</v>
-      </c>
-      <c r="D37" t="s">
+      <c r="D40" t="s">
+        <v>20</v>
+      </c>
+      <c r="E40" t="s">
         <v>21</v>
       </c>
-      <c r="E37" s="7">
+      <c r="F40" s="7">
+        <v>45536</v>
+      </c>
+      <c r="G40" s="5">
+        <v>0.51428571428571423</v>
+      </c>
+      <c r="H40" s="5">
+        <v>0.12121830534626601</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A41" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B41" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D41" t="s">
+        <v>20</v>
+      </c>
+      <c r="E41" t="s">
+        <v>21</v>
+      </c>
+      <c r="F41" s="7">
         <v>45755</v>
       </c>
-      <c r="F37" s="5">
+      <c r="G41" s="5">
         <v>0.85553953862531396</v>
       </c>
-      <c r="G37" s="5">
+      <c r="H41" s="5">
         <v>4.2158809163165251E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A38" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C38" t="s">
-        <v>20</v>
-      </c>
-      <c r="D38" t="s">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>19</v>
+      </c>
+      <c r="B42" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="C42" t="s">
+        <v>13</v>
+      </c>
+      <c r="D42" t="s">
+        <v>20</v>
+      </c>
+      <c r="E42" t="s">
         <v>21</v>
       </c>
-      <c r="E38" s="7">
-        <v>45755</v>
-      </c>
-      <c r="F38" s="5">
-        <v>0.97879293151331237</v>
-      </c>
-      <c r="G38" s="5">
-        <v>5.5615310479452959E-3</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>40</v>
-      </c>
-      <c r="B39" t="s">
+      <c r="F42" s="7">
+        <v>45536</v>
+      </c>
+      <c r="G42" s="5">
+        <v>0.81661738170736542</v>
+      </c>
+      <c r="H42" s="5">
+        <v>7.6861050116843535E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>19</v>
+      </c>
+      <c r="B43" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="C43" t="s">
         <v>13</v>
       </c>
-      <c r="C39" t="s">
-        <v>20</v>
-      </c>
-      <c r="D39" t="s">
-        <v>17</v>
-      </c>
-      <c r="E39" s="7">
-        <v>45776</v>
-      </c>
-      <c r="F39" s="5">
-        <v>-2.222222222222222E-2</v>
-      </c>
-      <c r="G39" s="5">
-        <v>3.1426968052735441E-2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>42</v>
-      </c>
-      <c r="B40" t="s">
-        <v>43</v>
-      </c>
-      <c r="C40" t="s">
-        <v>20</v>
-      </c>
-      <c r="D40" t="s">
+      <c r="D43" t="s">
+        <v>20</v>
+      </c>
+      <c r="E43" t="s">
         <v>21</v>
       </c>
-      <c r="E40" s="7">
-        <v>45762</v>
-      </c>
-      <c r="F40" s="5">
-        <v>0.91435638311895318</v>
-      </c>
-      <c r="G40" s="5">
-        <v>6.1985651793379677E-3</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>42</v>
-      </c>
-      <c r="B41" t="s">
-        <v>43</v>
-      </c>
-      <c r="C41" t="s">
-        <v>20</v>
-      </c>
-      <c r="D41" t="s">
+      <c r="F43" s="12">
+        <v>45505</v>
+      </c>
+      <c r="G43" s="5">
+        <v>0.10059142395264772</v>
+      </c>
+      <c r="H43" s="5">
+        <v>3.6351544997143381E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>19</v>
+      </c>
+      <c r="B44" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="C44" t="s">
+        <v>13</v>
+      </c>
+      <c r="D44" t="s">
+        <v>20</v>
+      </c>
+      <c r="E44" t="s">
         <v>21</v>
       </c>
-      <c r="E41" s="7">
-        <v>45775</v>
-      </c>
-      <c r="F41" s="5">
-        <v>0.43490581589321459</v>
-      </c>
-      <c r="G41" s="5">
-        <v>2.8218669012584109E-3</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>18</v>
-      </c>
-      <c r="B42" t="s">
-        <v>13</v>
-      </c>
-      <c r="C42" t="s">
-        <v>14</v>
-      </c>
-      <c r="D42" t="s">
-        <v>17</v>
-      </c>
-      <c r="E42" s="7">
-        <v>45748</v>
-      </c>
-      <c r="F42" s="5">
-        <v>0.17699345941599393</v>
-      </c>
-      <c r="G42" s="5">
-        <v>1.1941589724821271E-2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>18</v>
-      </c>
-      <c r="B43" t="s">
-        <v>13</v>
-      </c>
-      <c r="C43" t="s">
-        <v>14</v>
-      </c>
-      <c r="D43" t="s">
-        <v>17</v>
-      </c>
-      <c r="E43" s="7">
-        <v>45748</v>
-      </c>
-      <c r="F43" s="5">
-        <v>0.26390901719337523</v>
-      </c>
-      <c r="G43" s="5">
-        <v>4.7737674072742368E-3</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>18</v>
-      </c>
-      <c r="B44" t="s">
-        <v>13</v>
-      </c>
-      <c r="C44" t="s">
-        <v>14</v>
-      </c>
-      <c r="D44" t="s">
-        <v>17</v>
-      </c>
-      <c r="E44" s="7">
-        <v>45748</v>
-      </c>
-      <c r="F44" s="5">
-        <v>0.28001761540461234</v>
-      </c>
-      <c r="G44" s="5">
-        <v>2.2290062886233756E-2</v>
+      <c r="F44" s="7">
+        <v>45597</v>
+      </c>
+      <c r="G44" s="10">
+        <v>0.68975343109294163</v>
+      </c>
+      <c r="H44" s="10">
+        <v>2.5251115513233609E-2</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:H1" xr:uid="{86BEE0B4-46AA-5543-A409-0F4EECDF63D9}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H44">
+      <sortCondition descending="1" ref="A1:A44"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/Data/CultureLysoData.xlsx
+++ b/Data/CultureLysoData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10727"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://outlookuga-my.sharepoint.com/personal/ccz99536_uga_edu/Documents/Cruises/NES_CCS_Comparison/AcidotropicManuscript/AcidotropicDyes/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="76" documentId="14_{3E5DAE11-4240-B84C-8A20-1DB894A86FC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7ABE170D-1F12-044F-B6BE-6A35EFD57BFF}"/>
+  <xr:revisionPtr revIDLastSave="88" documentId="14_{3E5DAE11-4240-B84C-8A20-1DB894A86FC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FD270503-317C-0D4B-867A-792416C992A6}"/>
   <bookViews>
-    <workbookView xWindow="37160" yWindow="-820" windowWidth="30240" windowHeight="18880" activeTab="1" xr2:uid="{607BD773-A4C5-F849-B861-90CB68BD1820}"/>
+    <workbookView xWindow="37160" yWindow="-820" windowWidth="30240" windowHeight="18880" activeTab="2" xr2:uid="{607BD773-A4C5-F849-B861-90CB68BD1820}"/>
   </bookViews>
   <sheets>
     <sheet name="LysoTracker" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">LysoSensor!$A$1:$H$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">LysoTracker!$A$1:$L$72</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -3471,7 +3471,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86BEE0B4-46AA-5543-A409-0F4EECDF63D9}">
   <dimension ref="A1:H44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
@@ -4645,8 +4645,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8ED9F22E-E12E-E74A-87ED-9CBCE3E6ABE3}">
   <dimension ref="A1:H109"/>
   <sheetViews>
-    <sheetView topLeftCell="A74" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/Data/CultureLysoData.xlsx
+++ b/Data/CultureLysoData.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10817"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10905"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://outlookuga-my.sharepoint.com/personal/ccz99536_uga_edu/Documents/Cruises/NES_CCS_Comparison/AcidotropicManuscript/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://outlookuga-my.sharepoint.com/personal/ccz99536_uga_edu/Documents/Cruises/NES_CCS_Comparison/AcidotropicManuscript/AcidotropicDyes/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="144" documentId="14_{3E5DAE11-4240-B84C-8A20-1DB894A86FC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{20D4BC6D-12AB-534A-818D-700319CCB3D9}"/>
+  <xr:revisionPtr revIDLastSave="150" documentId="14_{3E5DAE11-4240-B84C-8A20-1DB894A86FC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F9E3FAF3-7E0E-E640-9A68-43BA5EADCBC2}"/>
   <bookViews>
-    <workbookView xWindow="30240" yWindow="-1460" windowWidth="19800" windowHeight="21100" activeTab="2" xr2:uid="{607BD773-A4C5-F849-B861-90CB68BD1820}"/>
+    <workbookView xWindow="48720" yWindow="-1460" windowWidth="19800" windowHeight="21100" activeTab="2" xr2:uid="{607BD773-A4C5-F849-B861-90CB68BD1820}"/>
   </bookViews>
   <sheets>
     <sheet name="LysoTracker" sheetId="1" r:id="rId1"/>
     <sheet name="LysoSensor" sheetId="2" r:id="rId2"/>
-    <sheet name="LysoTrackerFluoresence" sheetId="3" r:id="rId3"/>
+    <sheet name="Fluoresence" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Fluoresence!$A$1:$I$109</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">LysoSensor!$A$1:$G$44</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">LysoTracker!$A$1:$K$72</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">LysoTrackerFluoresence!$A$1:$I$109</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -70,9 +70,6 @@
   </si>
   <si>
     <t>SdLyso</t>
-  </si>
-  <si>
-    <t>MixoConc</t>
   </si>
   <si>
     <t>ln</t>
@@ -230,6 +227,9 @@
   <si>
     <t>VioletMean</t>
   </si>
+  <si>
+    <t>CellConcentration</t>
+  </si>
 </sst>
 </file>
 
@@ -341,10 +341,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -667,7 +663,7 @@
   <dimension ref="A1:K72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G74" sqref="G74"/>
+      <selection activeCell="D62" sqref="D62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -709,27 +705,27 @@
         <v>8</v>
       </c>
       <c r="I1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J1" t="s">
         <v>9</v>
-      </c>
-      <c r="J1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" t="s">
         <v>20</v>
-      </c>
-      <c r="E2" t="s">
-        <v>21</v>
       </c>
       <c r="F2" s="7">
         <v>45755</v>
@@ -749,19 +745,19 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" t="s">
         <v>20</v>
-      </c>
-      <c r="E3" t="s">
-        <v>21</v>
       </c>
       <c r="F3" s="7">
         <v>45755</v>
@@ -781,19 +777,19 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C4" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" t="s">
         <v>27</v>
-      </c>
-      <c r="D4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" t="s">
-        <v>28</v>
       </c>
       <c r="F4" s="7">
         <v>45474</v>
@@ -813,19 +809,19 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C5" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" t="s">
         <v>27</v>
-      </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" t="s">
-        <v>28</v>
       </c>
       <c r="F5" s="7">
         <v>45444</v>
@@ -845,19 +841,19 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" t="s">
         <v>42</v>
       </c>
-      <c r="B6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C6" t="s">
-        <v>43</v>
-      </c>
       <c r="D6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F6" s="7">
         <v>45762</v>
@@ -877,19 +873,19 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s">
         <v>12</v>
       </c>
-      <c r="C7" t="s">
-        <v>13</v>
-      </c>
       <c r="D7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" t="s">
         <v>20</v>
-      </c>
-      <c r="E7" t="s">
-        <v>21</v>
       </c>
       <c r="F7" s="7">
         <v>45444</v>
@@ -910,19 +906,19 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" t="s">
         <v>12</v>
       </c>
-      <c r="C8" t="s">
-        <v>13</v>
-      </c>
       <c r="D8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" t="s">
         <v>20</v>
-      </c>
-      <c r="E8" t="s">
-        <v>21</v>
       </c>
       <c r="F8" s="7">
         <v>45474</v>
@@ -942,19 +938,19 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C9" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" t="s">
         <v>31</v>
-      </c>
-      <c r="D9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E9" t="s">
-        <v>32</v>
       </c>
       <c r="F9" s="7">
         <v>45374</v>
@@ -974,19 +970,19 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" t="s">
         <v>20</v>
-      </c>
-      <c r="E10" t="s">
-        <v>21</v>
       </c>
       <c r="F10" s="7">
         <v>45597</v>
@@ -1006,19 +1002,19 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" t="s">
         <v>20</v>
-      </c>
-      <c r="E11" t="s">
-        <v>21</v>
       </c>
       <c r="F11" s="7">
         <v>45559</v>
@@ -1038,19 +1034,19 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" t="s">
         <v>20</v>
-      </c>
-      <c r="E12" t="s">
-        <v>21</v>
       </c>
       <c r="F12" s="7">
         <v>45559</v>
@@ -1070,19 +1066,19 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C13" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" t="s">
         <v>31</v>
-      </c>
-      <c r="D13" t="s">
-        <v>20</v>
-      </c>
-      <c r="E13" t="s">
-        <v>32</v>
       </c>
       <c r="F13" s="7">
         <v>45374</v>
@@ -1102,19 +1098,19 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C14" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14" t="s">
         <v>27</v>
-      </c>
-      <c r="D14" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14" t="s">
-        <v>28</v>
       </c>
       <c r="F14" s="7">
         <v>45559</v>
@@ -1134,19 +1130,19 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" t="s">
         <v>12</v>
       </c>
-      <c r="C15" t="s">
-        <v>13</v>
-      </c>
       <c r="D15" t="s">
+        <v>19</v>
+      </c>
+      <c r="E15" t="s">
         <v>20</v>
-      </c>
-      <c r="E15" t="s">
-        <v>21</v>
       </c>
       <c r="F15" s="7">
         <v>45474</v>
@@ -1166,19 +1162,19 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B16" t="s">
-        <v>12</v>
-      </c>
-      <c r="C16" s="3" t="s">
+      <c r="D16" t="s">
+        <v>19</v>
+      </c>
+      <c r="E16" t="s">
         <v>27</v>
-      </c>
-      <c r="D16" t="s">
-        <v>20</v>
-      </c>
-      <c r="E16" t="s">
-        <v>28</v>
       </c>
       <c r="F16" s="7">
         <v>45474</v>
@@ -1198,19 +1194,19 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B17" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" t="s">
         <v>12</v>
       </c>
-      <c r="C17" t="s">
-        <v>13</v>
-      </c>
       <c r="D17" t="s">
+        <v>19</v>
+      </c>
+      <c r="E17" t="s">
         <v>20</v>
-      </c>
-      <c r="E17" t="s">
-        <v>21</v>
       </c>
       <c r="F17" s="7">
         <v>45444</v>
@@ -1230,19 +1226,19 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B18" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C18" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D18" t="s">
+        <v>19</v>
+      </c>
+      <c r="E18" t="s">
         <v>31</v>
-      </c>
-      <c r="D18" t="s">
-        <v>20</v>
-      </c>
-      <c r="E18" t="s">
-        <v>32</v>
       </c>
       <c r="F18" s="7">
         <v>45444</v>
@@ -1262,19 +1258,19 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B19" t="s">
-        <v>35</v>
-      </c>
-      <c r="C19" s="3" t="s">
+      <c r="D19" t="s">
+        <v>19</v>
+      </c>
+      <c r="E19" t="s">
         <v>27</v>
-      </c>
-      <c r="D19" t="s">
-        <v>20</v>
-      </c>
-      <c r="E19" t="s">
-        <v>28</v>
       </c>
       <c r="F19" s="7">
         <v>45559</v>
@@ -1294,19 +1290,19 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
+        <v>15</v>
+      </c>
+      <c r="B20" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" t="s">
+        <v>12</v>
+      </c>
+      <c r="D20" t="s">
+        <v>13</v>
+      </c>
+      <c r="E20" t="s">
         <v>16</v>
-      </c>
-      <c r="B20" t="s">
-        <v>12</v>
-      </c>
-      <c r="C20" t="s">
-        <v>13</v>
-      </c>
-      <c r="D20" t="s">
-        <v>14</v>
-      </c>
-      <c r="E20" t="s">
-        <v>17</v>
       </c>
       <c r="F20" s="7">
         <v>44756</v>
@@ -1326,19 +1322,19 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
+        <v>15</v>
+      </c>
+      <c r="B21" t="s">
+        <v>34</v>
+      </c>
+      <c r="C21" t="s">
+        <v>12</v>
+      </c>
+      <c r="D21" t="s">
+        <v>13</v>
+      </c>
+      <c r="E21" t="s">
         <v>16</v>
-      </c>
-      <c r="B21" t="s">
-        <v>35</v>
-      </c>
-      <c r="C21" t="s">
-        <v>13</v>
-      </c>
-      <c r="D21" t="s">
-        <v>14</v>
-      </c>
-      <c r="E21" t="s">
-        <v>17</v>
       </c>
       <c r="F21" s="7">
         <v>45559</v>
@@ -1358,19 +1354,19 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B22" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22" t="s">
         <v>12</v>
       </c>
-      <c r="C22" t="s">
+      <c r="D22" t="s">
         <v>13</v>
       </c>
-      <c r="D22" t="s">
-        <v>14</v>
-      </c>
       <c r="E22" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F22" s="7">
         <v>44756</v>
@@ -1390,19 +1386,19 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
+        <v>10</v>
+      </c>
+      <c r="B23" t="s">
         <v>11</v>
       </c>
-      <c r="B23" t="s">
+      <c r="C23" t="s">
         <v>12</v>
       </c>
-      <c r="C23" t="s">
+      <c r="D23" t="s">
         <v>13</v>
       </c>
-      <c r="D23" t="s">
+      <c r="E23" t="s">
         <v>14</v>
-      </c>
-      <c r="E23" t="s">
-        <v>15</v>
       </c>
       <c r="F23" s="7">
         <v>45474</v>
@@ -1422,19 +1418,19 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B24" t="s">
-        <v>12</v>
-      </c>
-      <c r="C24" s="3" t="s">
+      <c r="D24" t="s">
+        <v>19</v>
+      </c>
+      <c r="E24" t="s">
         <v>31</v>
-      </c>
-      <c r="D24" t="s">
-        <v>20</v>
-      </c>
-      <c r="E24" t="s">
-        <v>32</v>
       </c>
       <c r="F24" s="7">
         <v>45374</v>
@@ -1454,19 +1450,19 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" t="s">
+        <v>11</v>
+      </c>
+      <c r="C25" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B25" t="s">
-        <v>12</v>
-      </c>
-      <c r="C25" s="3" t="s">
+      <c r="D25" t="s">
+        <v>19</v>
+      </c>
+      <c r="E25" t="s">
         <v>27</v>
-      </c>
-      <c r="D25" t="s">
-        <v>20</v>
-      </c>
-      <c r="E25" t="s">
-        <v>28</v>
       </c>
       <c r="F25" s="7">
         <v>45374</v>
@@ -1486,19 +1482,19 @@
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B26" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C26" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D26" t="s">
+        <v>19</v>
+      </c>
+      <c r="E26" t="s">
         <v>31</v>
-      </c>
-      <c r="D26" t="s">
-        <v>20</v>
-      </c>
-      <c r="E26" t="s">
-        <v>32</v>
       </c>
       <c r="F26" s="7">
         <v>45444</v>
@@ -1518,19 +1514,19 @@
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B27" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C27" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D27" t="s">
+        <v>19</v>
+      </c>
+      <c r="E27" t="s">
         <v>31</v>
-      </c>
-      <c r="D27" t="s">
-        <v>20</v>
-      </c>
-      <c r="E27" t="s">
-        <v>32</v>
       </c>
       <c r="F27" s="7">
         <v>45474</v>
@@ -1550,19 +1546,19 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
+        <v>41</v>
+      </c>
+      <c r="B28" t="s">
+        <v>34</v>
+      </c>
+      <c r="C28" t="s">
         <v>42</v>
       </c>
-      <c r="B28" t="s">
-        <v>35</v>
-      </c>
-      <c r="C28" t="s">
-        <v>43</v>
-      </c>
       <c r="D28" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="E28" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F28" s="7">
         <v>45775</v>
@@ -1582,19 +1578,19 @@
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
+        <v>29</v>
+      </c>
+      <c r="B29" t="s">
+        <v>11</v>
+      </c>
+      <c r="C29" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B29" t="s">
-        <v>12</v>
-      </c>
-      <c r="C29" s="3" t="s">
+      <c r="D29" t="s">
+        <v>19</v>
+      </c>
+      <c r="E29" t="s">
         <v>31</v>
-      </c>
-      <c r="D29" t="s">
-        <v>20</v>
-      </c>
-      <c r="E29" t="s">
-        <v>32</v>
       </c>
       <c r="F29" s="7">
         <v>45474</v>
@@ -1614,19 +1610,19 @@
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
+        <v>25</v>
+      </c>
+      <c r="B30" t="s">
+        <v>11</v>
+      </c>
+      <c r="C30" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B30" t="s">
-        <v>12</v>
-      </c>
-      <c r="C30" s="3" t="s">
+      <c r="D30" t="s">
+        <v>19</v>
+      </c>
+      <c r="E30" t="s">
         <v>27</v>
-      </c>
-      <c r="D30" t="s">
-        <v>20</v>
-      </c>
-      <c r="E30" t="s">
-        <v>28</v>
       </c>
       <c r="F30" s="7">
         <v>45444</v>
@@ -1646,19 +1642,19 @@
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B31" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C31" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D31" t="s">
+        <v>19</v>
+      </c>
+      <c r="E31" t="s">
         <v>31</v>
-      </c>
-      <c r="D31" t="s">
-        <v>20</v>
-      </c>
-      <c r="E31" t="s">
-        <v>32</v>
       </c>
       <c r="F31" s="7">
         <v>45474</v>
@@ -1678,19 +1674,19 @@
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
+        <v>29</v>
+      </c>
+      <c r="B32" t="s">
+        <v>11</v>
+      </c>
+      <c r="C32" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B32" t="s">
-        <v>12</v>
-      </c>
-      <c r="C32" s="3" t="s">
+      <c r="D32" t="s">
+        <v>19</v>
+      </c>
+      <c r="E32" t="s">
         <v>31</v>
-      </c>
-      <c r="D32" t="s">
-        <v>20</v>
-      </c>
-      <c r="E32" t="s">
-        <v>32</v>
       </c>
       <c r="F32" s="7">
         <v>45444</v>
@@ -1710,19 +1706,19 @@
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B33" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C33" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D33" t="s">
+        <v>19</v>
+      </c>
+      <c r="E33" t="s">
         <v>27</v>
-      </c>
-      <c r="D33" t="s">
-        <v>20</v>
-      </c>
-      <c r="E33" t="s">
-        <v>28</v>
       </c>
       <c r="F33" s="7">
         <v>45374</v>
@@ -1742,19 +1738,19 @@
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B34" t="s">
+        <v>11</v>
+      </c>
+      <c r="C34" t="s">
         <v>12</v>
       </c>
-      <c r="C34" t="s">
+      <c r="D34" t="s">
         <v>13</v>
       </c>
-      <c r="D34" t="s">
-        <v>14</v>
-      </c>
       <c r="E34" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F34" s="7">
         <v>45374</v>
@@ -1774,19 +1770,19 @@
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
+        <v>15</v>
+      </c>
+      <c r="B35" t="s">
+        <v>11</v>
+      </c>
+      <c r="C35" t="s">
+        <v>12</v>
+      </c>
+      <c r="D35" t="s">
+        <v>13</v>
+      </c>
+      <c r="E35" t="s">
         <v>16</v>
-      </c>
-      <c r="B35" t="s">
-        <v>12</v>
-      </c>
-      <c r="C35" t="s">
-        <v>13</v>
-      </c>
-      <c r="D35" t="s">
-        <v>14</v>
-      </c>
-      <c r="E35" t="s">
-        <v>17</v>
       </c>
       <c r="F35" s="7">
         <v>45444</v>
@@ -1806,19 +1802,19 @@
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B36" t="s">
+        <v>11</v>
+      </c>
+      <c r="C36" t="s">
         <v>12</v>
       </c>
-      <c r="C36" t="s">
-        <v>13</v>
-      </c>
       <c r="D36" t="s">
+        <v>19</v>
+      </c>
+      <c r="E36" t="s">
         <v>20</v>
-      </c>
-      <c r="E36" t="s">
-        <v>21</v>
       </c>
       <c r="F36" s="7">
         <v>45444</v>
@@ -1838,19 +1834,19 @@
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
+        <v>23</v>
+      </c>
+      <c r="B37" t="s">
+        <v>11</v>
+      </c>
+      <c r="C37" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B37" t="s">
-        <v>12</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>25</v>
-      </c>
       <c r="D37" t="s">
+        <v>19</v>
+      </c>
+      <c r="E37" t="s">
         <v>20</v>
-      </c>
-      <c r="E37" t="s">
-        <v>21</v>
       </c>
       <c r="F37" s="7">
         <v>45374</v>
@@ -1870,19 +1866,19 @@
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
+        <v>23</v>
+      </c>
+      <c r="B38" t="s">
+        <v>34</v>
+      </c>
+      <c r="C38" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B38" t="s">
-        <v>35</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>25</v>
-      </c>
       <c r="D38" t="s">
+        <v>19</v>
+      </c>
+      <c r="E38" t="s">
         <v>20</v>
-      </c>
-      <c r="E38" t="s">
-        <v>21</v>
       </c>
       <c r="F38" s="7">
         <v>45559</v>
@@ -1902,19 +1898,19 @@
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D39" t="s">
+        <v>19</v>
+      </c>
+      <c r="E39" t="s">
         <v>20</v>
-      </c>
-      <c r="E39" t="s">
-        <v>21</v>
       </c>
       <c r="F39" s="7">
         <v>45559</v>
@@ -1934,19 +1930,19 @@
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
+        <v>15</v>
+      </c>
+      <c r="B40" t="s">
+        <v>11</v>
+      </c>
+      <c r="C40" t="s">
+        <v>12</v>
+      </c>
+      <c r="D40" t="s">
+        <v>13</v>
+      </c>
+      <c r="E40" t="s">
         <v>16</v>
-      </c>
-      <c r="B40" t="s">
-        <v>12</v>
-      </c>
-      <c r="C40" t="s">
-        <v>13</v>
-      </c>
-      <c r="D40" t="s">
-        <v>14</v>
-      </c>
-      <c r="E40" t="s">
-        <v>17</v>
       </c>
       <c r="F40" s="7">
         <v>45474</v>
@@ -1966,19 +1962,19 @@
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
+        <v>10</v>
+      </c>
+      <c r="B41" t="s">
         <v>11</v>
       </c>
-      <c r="B41" t="s">
+      <c r="C41" t="s">
         <v>12</v>
       </c>
-      <c r="C41" t="s">
+      <c r="D41" t="s">
         <v>13</v>
       </c>
-      <c r="D41" t="s">
+      <c r="E41" t="s">
         <v>14</v>
-      </c>
-      <c r="E41" t="s">
-        <v>15</v>
       </c>
       <c r="F41" s="7">
         <v>45444</v>
@@ -1998,19 +1994,19 @@
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B42" t="s">
+        <v>11</v>
+      </c>
+      <c r="C42" t="s">
         <v>12</v>
       </c>
-      <c r="C42" t="s">
-        <v>13</v>
-      </c>
       <c r="D42" t="s">
+        <v>19</v>
+      </c>
+      <c r="E42" t="s">
         <v>20</v>
-      </c>
-      <c r="E42" t="s">
-        <v>21</v>
       </c>
       <c r="F42" s="7">
         <v>45474</v>
@@ -2030,19 +2026,19 @@
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B43" t="s">
+        <v>11</v>
+      </c>
+      <c r="C43" t="s">
         <v>12</v>
       </c>
-      <c r="C43" t="s">
+      <c r="D43" t="s">
         <v>13</v>
       </c>
-      <c r="D43" t="s">
-        <v>14</v>
-      </c>
       <c r="E43" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F43" s="7">
         <v>45474</v>
@@ -2062,19 +2058,19 @@
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B44" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C44" t="s">
+        <v>12</v>
+      </c>
+      <c r="D44" t="s">
         <v>13</v>
       </c>
-      <c r="D44" t="s">
-        <v>14</v>
-      </c>
       <c r="E44" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F44" s="7">
         <v>45818</v>
@@ -2094,19 +2090,19 @@
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B45" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C45" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D45" t="s">
+        <v>19</v>
+      </c>
+      <c r="E45" t="s">
         <v>20</v>
-      </c>
-      <c r="E45" t="s">
-        <v>21</v>
       </c>
       <c r="F45" s="7">
         <v>45559</v>
@@ -2126,19 +2122,19 @@
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B46" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D46" t="s">
+        <v>19</v>
+      </c>
+      <c r="E46" t="s">
         <v>20</v>
-      </c>
-      <c r="E46" t="s">
-        <v>21</v>
       </c>
       <c r="F46" s="7">
         <v>45597</v>
@@ -2158,19 +2154,19 @@
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B47" t="s">
+        <v>11</v>
+      </c>
+      <c r="C47" t="s">
         <v>12</v>
       </c>
-      <c r="C47" t="s">
+      <c r="D47" t="s">
         <v>13</v>
       </c>
-      <c r="D47" t="s">
-        <v>14</v>
-      </c>
       <c r="E47" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F47" s="7">
         <v>45444</v>
@@ -2190,19 +2186,19 @@
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B48" t="s">
+        <v>11</v>
+      </c>
+      <c r="C48" t="s">
         <v>12</v>
       </c>
-      <c r="C48" t="s">
-        <v>13</v>
-      </c>
       <c r="D48" t="s">
+        <v>19</v>
+      </c>
+      <c r="E48" t="s">
         <v>20</v>
-      </c>
-      <c r="E48" t="s">
-        <v>21</v>
       </c>
       <c r="F48" s="7">
         <v>45374</v>
@@ -2222,19 +2218,19 @@
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
+        <v>23</v>
+      </c>
+      <c r="B49" t="s">
+        <v>11</v>
+      </c>
+      <c r="C49" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B49" t="s">
-        <v>12</v>
-      </c>
-      <c r="C49" s="3" t="s">
-        <v>25</v>
-      </c>
       <c r="D49" t="s">
+        <v>19</v>
+      </c>
+      <c r="E49" t="s">
         <v>20</v>
-      </c>
-      <c r="E49" t="s">
-        <v>21</v>
       </c>
       <c r="F49" s="7">
         <v>45474</v>
@@ -2254,19 +2250,19 @@
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B50" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C50" t="s">
+        <v>12</v>
+      </c>
+      <c r="D50" t="s">
         <v>13</v>
       </c>
-      <c r="D50" t="s">
-        <v>14</v>
-      </c>
       <c r="E50" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F50" s="7">
         <v>45748</v>
@@ -2286,19 +2282,19 @@
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B51" t="s">
+        <v>11</v>
+      </c>
+      <c r="C51" t="s">
         <v>12</v>
       </c>
-      <c r="C51" t="s">
-        <v>13</v>
-      </c>
       <c r="D51" t="s">
+        <v>19</v>
+      </c>
+      <c r="E51" t="s">
         <v>20</v>
-      </c>
-      <c r="E51" t="s">
-        <v>21</v>
       </c>
       <c r="F51" s="7">
         <v>45374</v>
@@ -2318,19 +2314,19 @@
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
+        <v>15</v>
+      </c>
+      <c r="B52" t="s">
+        <v>34</v>
+      </c>
+      <c r="C52" t="s">
+        <v>12</v>
+      </c>
+      <c r="D52" t="s">
+        <v>13</v>
+      </c>
+      <c r="E52" t="s">
         <v>16</v>
-      </c>
-      <c r="B52" t="s">
-        <v>35</v>
-      </c>
-      <c r="C52" t="s">
-        <v>13</v>
-      </c>
-      <c r="D52" t="s">
-        <v>14</v>
-      </c>
-      <c r="E52" t="s">
-        <v>17</v>
       </c>
       <c r="F52" s="7">
         <v>45818</v>
@@ -2350,19 +2346,19 @@
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B53" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D53" t="s">
+        <v>19</v>
+      </c>
+      <c r="E53" t="s">
         <v>20</v>
-      </c>
-      <c r="E53" t="s">
-        <v>21</v>
       </c>
       <c r="F53" s="7">
         <v>45597</v>
@@ -2382,19 +2378,19 @@
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
+        <v>23</v>
+      </c>
+      <c r="B54" t="s">
+        <v>11</v>
+      </c>
+      <c r="C54" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B54" t="s">
-        <v>12</v>
-      </c>
-      <c r="C54" s="3" t="s">
-        <v>25</v>
-      </c>
       <c r="D54" t="s">
+        <v>19</v>
+      </c>
+      <c r="E54" t="s">
         <v>20</v>
-      </c>
-      <c r="E54" t="s">
-        <v>21</v>
       </c>
       <c r="F54" s="7">
         <v>45444</v>
@@ -2414,19 +2410,19 @@
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
+        <v>29</v>
+      </c>
+      <c r="B55" t="s">
+        <v>34</v>
+      </c>
+      <c r="C55" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B55" t="s">
-        <v>35</v>
-      </c>
-      <c r="C55" s="3" t="s">
+      <c r="D55" t="s">
+        <v>19</v>
+      </c>
+      <c r="E55" t="s">
         <v>31</v>
-      </c>
-      <c r="D55" t="s">
-        <v>20</v>
-      </c>
-      <c r="E55" t="s">
-        <v>32</v>
       </c>
       <c r="F55" s="7">
         <v>45723</v>
@@ -2446,19 +2442,19 @@
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B56" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C56" t="s">
+        <v>12</v>
+      </c>
+      <c r="D56" t="s">
         <v>13</v>
       </c>
-      <c r="D56" t="s">
-        <v>14</v>
-      </c>
       <c r="E56" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F56" s="7">
         <v>45748</v>
@@ -2478,19 +2474,19 @@
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B57" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C57" t="s">
+        <v>12</v>
+      </c>
+      <c r="D57" t="s">
         <v>13</v>
       </c>
-      <c r="D57" t="s">
-        <v>14</v>
-      </c>
       <c r="E57" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F57" s="7">
         <v>45748</v>
@@ -2510,19 +2506,19 @@
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B58" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C58" t="s">
+        <v>12</v>
+      </c>
+      <c r="D58" t="s">
         <v>13</v>
       </c>
-      <c r="D58" t="s">
-        <v>14</v>
-      </c>
       <c r="E58" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F58" s="7">
         <v>45559</v>
@@ -2542,19 +2538,19 @@
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
+        <v>10</v>
+      </c>
+      <c r="B59" t="s">
         <v>11</v>
       </c>
-      <c r="B59" t="s">
+      <c r="C59" t="s">
         <v>12</v>
       </c>
-      <c r="C59" t="s">
+      <c r="D59" t="s">
         <v>13</v>
       </c>
-      <c r="D59" t="s">
+      <c r="E59" t="s">
         <v>14</v>
-      </c>
-      <c r="E59" t="s">
-        <v>15</v>
       </c>
       <c r="F59" s="7">
         <v>45374</v>
@@ -2574,19 +2570,19 @@
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
+        <v>39</v>
+      </c>
+      <c r="B60" t="s">
+        <v>34</v>
+      </c>
+      <c r="C60" t="s">
+        <v>12</v>
+      </c>
+      <c r="D60" t="s">
         <v>40</v>
       </c>
-      <c r="B60" t="s">
-        <v>35</v>
-      </c>
-      <c r="C60" t="s">
-        <v>13</v>
-      </c>
-      <c r="D60" t="s">
-        <v>41</v>
-      </c>
       <c r="E60" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F60" s="7">
         <v>45658</v>
@@ -2607,19 +2603,19 @@
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B61" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D61" t="s">
+        <v>19</v>
+      </c>
+      <c r="E61" t="s">
         <v>20</v>
-      </c>
-      <c r="E61" t="s">
-        <v>21</v>
       </c>
       <c r="F61" s="7">
         <v>45559</v>
@@ -2639,19 +2635,19 @@
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
+        <v>41</v>
+      </c>
+      <c r="B62" t="s">
+        <v>34</v>
+      </c>
+      <c r="C62" t="s">
         <v>42</v>
       </c>
-      <c r="B62" t="s">
-        <v>35</v>
-      </c>
-      <c r="C62" t="s">
-        <v>43</v>
-      </c>
       <c r="D62" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="E62" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F62" s="7">
         <v>45658</v>
@@ -2671,19 +2667,19 @@
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B63" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D63" t="s">
+        <v>19</v>
+      </c>
+      <c r="E63" t="s">
         <v>20</v>
-      </c>
-      <c r="E63" t="s">
-        <v>21</v>
       </c>
       <c r="F63" s="7">
         <v>45820</v>
@@ -2703,19 +2699,19 @@
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B64" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C64" t="s">
+        <v>12</v>
+      </c>
+      <c r="D64" t="s">
         <v>13</v>
       </c>
-      <c r="D64" t="s">
+      <c r="E64" t="s">
         <v>14</v>
-      </c>
-      <c r="E64" t="s">
-        <v>15</v>
       </c>
       <c r="F64" s="7">
         <v>45559</v>
@@ -2735,19 +2731,19 @@
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B65" t="s">
+        <v>11</v>
+      </c>
+      <c r="C65" t="s">
         <v>12</v>
       </c>
-      <c r="C65" t="s">
-        <v>13</v>
-      </c>
       <c r="D65" t="s">
+        <v>19</v>
+      </c>
+      <c r="E65" t="s">
         <v>20</v>
-      </c>
-      <c r="E65" t="s">
-        <v>21</v>
       </c>
       <c r="F65" s="7">
         <v>45374</v>
@@ -2767,19 +2763,19 @@
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B66" t="s">
+        <v>11</v>
+      </c>
+      <c r="C66" t="s">
         <v>12</v>
       </c>
-      <c r="C66" t="s">
-        <v>13</v>
-      </c>
       <c r="D66" t="s">
+        <v>19</v>
+      </c>
+      <c r="E66" t="s">
         <v>20</v>
-      </c>
-      <c r="E66" t="s">
-        <v>21</v>
       </c>
       <c r="F66" s="7">
         <v>45374</v>
@@ -2799,19 +2795,19 @@
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
+        <v>10</v>
+      </c>
+      <c r="B67" t="s">
         <v>11</v>
       </c>
-      <c r="B67" t="s">
+      <c r="C67" t="s">
         <v>12</v>
       </c>
-      <c r="C67" t="s">
+      <c r="D67" t="s">
         <v>13</v>
       </c>
-      <c r="D67" t="s">
+      <c r="E67" t="s">
         <v>14</v>
-      </c>
-      <c r="E67" t="s">
-        <v>15</v>
       </c>
       <c r="F67" s="7">
         <v>44756</v>
@@ -2831,19 +2827,19 @@
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
+        <v>33</v>
+      </c>
+      <c r="B68" t="s">
         <v>34</v>
       </c>
-      <c r="B68" t="s">
-        <v>35</v>
-      </c>
       <c r="C68" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D68" t="s">
+        <v>19</v>
+      </c>
+      <c r="E68" t="s">
         <v>31</v>
-      </c>
-      <c r="D68" t="s">
-        <v>20</v>
-      </c>
-      <c r="E68" t="s">
-        <v>32</v>
       </c>
       <c r="F68" s="7">
         <v>45559</v>
@@ -2863,19 +2859,19 @@
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B69" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C69" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D69" t="s">
+        <v>19</v>
+      </c>
+      <c r="E69" t="s">
         <v>31</v>
-      </c>
-      <c r="D69" t="s">
-        <v>20</v>
-      </c>
-      <c r="E69" t="s">
-        <v>32</v>
       </c>
       <c r="F69" s="7">
         <v>45559</v>
@@ -2895,19 +2891,19 @@
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B70" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C70" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D70" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="E70" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F70" s="7">
         <v>45776</v>
@@ -2927,19 +2923,19 @@
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A71" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B71" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D71" t="s">
+        <v>19</v>
+      </c>
+      <c r="E71" t="s">
         <v>20</v>
-      </c>
-      <c r="E71" t="s">
-        <v>21</v>
       </c>
       <c r="F71" s="7">
         <v>45559</v>
@@ -2959,19 +2955,19 @@
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
+        <v>29</v>
+      </c>
+      <c r="B72" t="s">
+        <v>34</v>
+      </c>
+      <c r="C72" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B72" t="s">
-        <v>35</v>
-      </c>
-      <c r="C72" s="3" t="s">
+      <c r="D72" t="s">
+        <v>19</v>
+      </c>
+      <c r="E72" t="s">
         <v>31</v>
-      </c>
-      <c r="D72" t="s">
-        <v>20</v>
-      </c>
-      <c r="E72" t="s">
-        <v>32</v>
       </c>
       <c r="F72" s="7">
         <v>45559</v>
@@ -3001,11 +2997,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86BEE0B4-46AA-5543-A409-0F4EECDF63D9}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:G44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D69" sqref="D69"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3036,24 +3031,24 @@
         <v>6</v>
       </c>
       <c r="F1" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G1" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="G1" s="5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" t="s">
         <v>20</v>
-      </c>
-      <c r="D2" t="s">
-        <v>21</v>
       </c>
       <c r="E2" s="7">
         <v>45536</v>
@@ -3065,18 +3060,18 @@
         <v>7.6861050116843535E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" t="s">
         <v>20</v>
-      </c>
-      <c r="D3" t="s">
-        <v>21</v>
       </c>
       <c r="E3" s="7">
         <v>45536</v>
@@ -3088,18 +3083,18 @@
         <v>1.8034715433451368E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" t="s">
         <v>20</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
       </c>
       <c r="E4" s="7">
         <v>45536</v>
@@ -3111,18 +3106,18 @@
         <v>9.6402425027867139E-5</v>
       </c>
     </row>
-    <row r="5" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" t="s">
         <v>20</v>
-      </c>
-      <c r="D5" t="s">
-        <v>21</v>
       </c>
       <c r="E5" s="7">
         <v>45536</v>
@@ -3134,18 +3129,18 @@
         <v>0.12121830534626601</v>
       </c>
     </row>
-    <row r="6" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" t="s">
         <v>20</v>
-      </c>
-      <c r="D6" t="s">
-        <v>21</v>
       </c>
       <c r="E6" s="7">
         <v>45536</v>
@@ -3157,18 +3152,18 @@
         <v>1.2418039015700804E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" t="s">
         <v>20</v>
-      </c>
-      <c r="D7" t="s">
-        <v>21</v>
       </c>
       <c r="E7" s="7">
         <v>45536</v>
@@ -3180,18 +3175,18 @@
         <v>2.7582179407985744E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>25</v>
-      </c>
       <c r="C8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" t="s">
         <v>20</v>
-      </c>
-      <c r="D8" t="s">
-        <v>21</v>
       </c>
       <c r="E8" s="7">
         <v>45536</v>
@@ -3203,18 +3198,18 @@
         <v>7.534590099211691E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" t="s">
         <v>20</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
       </c>
       <c r="E9" s="7">
         <v>45536</v>
@@ -3226,18 +3221,18 @@
         <v>5.1651680422318838E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="C10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" t="s">
         <v>27</v>
-      </c>
-      <c r="C10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" t="s">
-        <v>28</v>
       </c>
       <c r="E10" s="7">
         <v>45536</v>
@@ -3249,18 +3244,18 @@
         <v>3.8745964674995097E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" t="s">
         <v>27</v>
-      </c>
-      <c r="C11" t="s">
-        <v>20</v>
-      </c>
-      <c r="D11" t="s">
-        <v>28</v>
       </c>
       <c r="E11" s="7">
         <v>45536</v>
@@ -3272,18 +3267,18 @@
         <v>4.0801529561465837E-5</v>
       </c>
     </row>
-    <row r="12" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B12" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" t="s">
         <v>31</v>
-      </c>
-      <c r="C12" t="s">
-        <v>20</v>
-      </c>
-      <c r="D12" t="s">
-        <v>32</v>
       </c>
       <c r="E12" s="7">
         <v>45536</v>
@@ -3295,18 +3290,18 @@
         <v>0.20538426753164196</v>
       </c>
     </row>
-    <row r="13" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B13" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" t="s">
         <v>31</v>
-      </c>
-      <c r="C13" t="s">
-        <v>20</v>
-      </c>
-      <c r="D13" t="s">
-        <v>32</v>
       </c>
       <c r="E13" s="7">
         <v>45536</v>
@@ -3318,18 +3313,18 @@
         <v>0.33198362434469864</v>
       </c>
     </row>
-    <row r="14" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="C14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" t="s">
         <v>31</v>
-      </c>
-      <c r="C14" t="s">
-        <v>20</v>
-      </c>
-      <c r="D14" t="s">
-        <v>32</v>
       </c>
       <c r="E14" s="7">
         <v>45536</v>
@@ -3341,18 +3336,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" t="s">
         <v>16</v>
-      </c>
-      <c r="B15" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15" t="s">
-        <v>14</v>
-      </c>
-      <c r="D15" t="s">
-        <v>17</v>
       </c>
       <c r="E15" s="7">
         <v>45536</v>
@@ -3364,18 +3359,18 @@
         <v>2.0617576761588783E-4</v>
       </c>
     </row>
-    <row r="16" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" t="s">
         <v>13</v>
       </c>
-      <c r="C16" t="s">
-        <v>14</v>
-      </c>
       <c r="D16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E16" s="7">
         <v>45536</v>
@@ -3387,18 +3382,18 @@
         <v>9.944643495296621E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" t="s">
         <v>13</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
         <v>14</v>
-      </c>
-      <c r="D17" t="s">
-        <v>15</v>
       </c>
       <c r="E17" s="7">
         <v>45536</v>
@@ -3410,18 +3405,18 @@
         <v>2.8140425259772887E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C18" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" t="s">
         <v>20</v>
-      </c>
-      <c r="D18" t="s">
-        <v>21</v>
       </c>
       <c r="E18" s="12">
         <v>45505</v>
@@ -3433,18 +3428,18 @@
         <v>3.4011547325758584E-4</v>
       </c>
     </row>
-    <row r="19" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B19" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C19" t="s">
+        <v>19</v>
+      </c>
+      <c r="D19" t="s">
         <v>20</v>
-      </c>
-      <c r="D19" t="s">
-        <v>21</v>
       </c>
       <c r="E19" s="12">
         <v>45505</v>
@@ -3456,18 +3451,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C20" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20" t="s">
         <v>20</v>
-      </c>
-      <c r="D20" t="s">
-        <v>21</v>
       </c>
       <c r="E20" s="12">
         <v>45505</v>
@@ -3479,18 +3474,18 @@
         <v>3.6351544997143381E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C21" t="s">
+        <v>19</v>
+      </c>
+      <c r="D21" t="s">
         <v>20</v>
-      </c>
-      <c r="D21" t="s">
-        <v>21</v>
       </c>
       <c r="E21" s="12">
         <v>45505</v>
@@ -3502,18 +3497,18 @@
         <v>8.4753246374540334E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="C22" t="s">
+        <v>19</v>
+      </c>
+      <c r="D22" t="s">
         <v>27</v>
-      </c>
-      <c r="C22" t="s">
-        <v>20</v>
-      </c>
-      <c r="D22" t="s">
-        <v>28</v>
       </c>
       <c r="E22" s="12">
         <v>45505</v>
@@ -3525,18 +3520,18 @@
         <v>4.3805282054369693E-4</v>
       </c>
     </row>
-    <row r="23" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B23" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>19</v>
+      </c>
+      <c r="D23" t="s">
         <v>27</v>
-      </c>
-      <c r="C23" t="s">
-        <v>20</v>
-      </c>
-      <c r="D23" t="s">
-        <v>28</v>
       </c>
       <c r="E23" s="12">
         <v>45505</v>
@@ -3548,18 +3543,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B24" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C24" t="s">
+        <v>19</v>
+      </c>
+      <c r="D24" t="s">
         <v>31</v>
-      </c>
-      <c r="C24" t="s">
-        <v>20</v>
-      </c>
-      <c r="D24" t="s">
-        <v>32</v>
       </c>
       <c r="E24" s="12">
         <v>45505</v>
@@ -3571,18 +3566,18 @@
         <v>4.5233443329828663E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B25" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C25" t="s">
+        <v>19</v>
+      </c>
+      <c r="D25" t="s">
         <v>31</v>
-      </c>
-      <c r="C25" t="s">
-        <v>20</v>
-      </c>
-      <c r="D25" t="s">
-        <v>32</v>
       </c>
       <c r="E25" s="12">
         <v>45505</v>
@@ -3594,18 +3589,18 @@
         <v>6.0679225247833965E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B26" t="s">
+        <v>12</v>
+      </c>
+      <c r="C26" t="s">
         <v>13</v>
       </c>
-      <c r="C26" t="s">
+      <c r="D26" t="s">
         <v>14</v>
-      </c>
-      <c r="D26" t="s">
-        <v>15</v>
       </c>
       <c r="E26" s="12">
         <v>45505</v>
@@ -3617,18 +3612,18 @@
         <v>4.9907673395026726E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
+        <v>15</v>
+      </c>
+      <c r="B27" t="s">
+        <v>12</v>
+      </c>
+      <c r="C27" t="s">
+        <v>13</v>
+      </c>
+      <c r="D27" t="s">
         <v>16</v>
-      </c>
-      <c r="B27" t="s">
-        <v>13</v>
-      </c>
-      <c r="C27" t="s">
-        <v>14</v>
-      </c>
-      <c r="D27" t="s">
-        <v>17</v>
       </c>
       <c r="E27" s="12">
         <v>45505</v>
@@ -3640,18 +3635,18 @@
         <v>9.4280904158206339E-4</v>
       </c>
     </row>
-    <row r="28" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B28" t="s">
+        <v>12</v>
+      </c>
+      <c r="C28" t="s">
         <v>13</v>
       </c>
-      <c r="C28" t="s">
-        <v>14</v>
-      </c>
       <c r="D28" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E28" s="12">
         <v>45505</v>
@@ -3663,18 +3658,18 @@
         <v>9.6039713335741034E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C29" t="s">
+        <v>19</v>
+      </c>
+      <c r="D29" t="s">
         <v>20</v>
-      </c>
-      <c r="D29" t="s">
-        <v>21</v>
       </c>
       <c r="E29" s="7">
         <v>45597</v>
@@ -3686,18 +3681,18 @@
         <v>4.2865438304187384E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C30" t="s">
+        <v>19</v>
+      </c>
+      <c r="D30" t="s">
         <v>20</v>
-      </c>
-      <c r="D30" t="s">
-        <v>21</v>
       </c>
       <c r="E30" s="7">
         <v>45597</v>
@@ -3709,18 +3704,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B31" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C31" t="s">
+        <v>19</v>
+      </c>
+      <c r="D31" t="s">
         <v>20</v>
-      </c>
-      <c r="D31" t="s">
-        <v>21</v>
       </c>
       <c r="E31" s="7">
         <v>45597</v>
@@ -3732,18 +3727,18 @@
         <v>2.5251115513233609E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
+        <v>15</v>
+      </c>
+      <c r="B32" t="s">
+        <v>12</v>
+      </c>
+      <c r="C32" t="s">
+        <v>13</v>
+      </c>
+      <c r="D32" t="s">
         <v>16</v>
-      </c>
-      <c r="B32" t="s">
-        <v>13</v>
-      </c>
-      <c r="C32" t="s">
-        <v>14</v>
-      </c>
-      <c r="D32" t="s">
-        <v>17</v>
       </c>
       <c r="E32" s="7">
         <v>45597</v>
@@ -3755,18 +3750,18 @@
         <v>1.7402135714189033E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B33" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>19</v>
+      </c>
+      <c r="D33" t="s">
         <v>27</v>
-      </c>
-      <c r="C33" t="s">
-        <v>20</v>
-      </c>
-      <c r="D33" t="s">
-        <v>28</v>
       </c>
       <c r="E33" s="7">
         <v>45597</v>
@@ -3780,16 +3775,16 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B34" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C34" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D34" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E34" s="7">
         <v>45658</v>
@@ -3801,18 +3796,18 @@
         <v>3.7986587813519178E-5</v>
       </c>
     </row>
-    <row r="35" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
+        <v>41</v>
+      </c>
+      <c r="B35" t="s">
         <v>42</v>
       </c>
-      <c r="B35" t="s">
-        <v>43</v>
-      </c>
       <c r="C35" t="s">
+        <v>19</v>
+      </c>
+      <c r="D35" t="s">
         <v>20</v>
-      </c>
-      <c r="D35" t="s">
-        <v>21</v>
       </c>
       <c r="E35" s="7">
         <v>45658</v>
@@ -3824,18 +3819,18 @@
         <v>1.445812359513262E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
+        <v>29</v>
+      </c>
+      <c r="B36" t="s">
         <v>30</v>
       </c>
-      <c r="B36" t="s">
+      <c r="C36" t="s">
+        <v>19</v>
+      </c>
+      <c r="D36" t="s">
         <v>31</v>
-      </c>
-      <c r="C36" t="s">
-        <v>20</v>
-      </c>
-      <c r="D36" t="s">
-        <v>32</v>
       </c>
       <c r="E36" s="7">
         <v>45723</v>
@@ -3847,18 +3842,18 @@
         <v>5.6161651229300474E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C37" t="s">
+        <v>19</v>
+      </c>
+      <c r="D37" t="s">
         <v>20</v>
-      </c>
-      <c r="D37" t="s">
-        <v>21</v>
       </c>
       <c r="E37" s="7">
         <v>45755</v>
@@ -3870,18 +3865,18 @@
         <v>4.2158809163165251E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C38" t="s">
+        <v>19</v>
+      </c>
+      <c r="D38" t="s">
         <v>20</v>
-      </c>
-      <c r="D38" t="s">
-        <v>21</v>
       </c>
       <c r="E38" s="7">
         <v>45755</v>
@@ -3895,16 +3890,16 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B39" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C39" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D39" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E39" s="7">
         <v>45776</v>
@@ -3916,18 +3911,18 @@
         <v>3.1426968052735441E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
+        <v>41</v>
+      </c>
+      <c r="B40" t="s">
         <v>42</v>
       </c>
-      <c r="B40" t="s">
-        <v>43</v>
-      </c>
       <c r="C40" t="s">
+        <v>19</v>
+      </c>
+      <c r="D40" t="s">
         <v>20</v>
-      </c>
-      <c r="D40" t="s">
-        <v>21</v>
       </c>
       <c r="E40" s="7">
         <v>45762</v>
@@ -3939,18 +3934,18 @@
         <v>6.1985651793379677E-3</v>
       </c>
     </row>
-    <row r="41" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
+        <v>41</v>
+      </c>
+      <c r="B41" t="s">
         <v>42</v>
       </c>
-      <c r="B41" t="s">
-        <v>43</v>
-      </c>
       <c r="C41" t="s">
+        <v>19</v>
+      </c>
+      <c r="D41" t="s">
         <v>20</v>
-      </c>
-      <c r="D41" t="s">
-        <v>21</v>
       </c>
       <c r="E41" s="7">
         <v>45775</v>
@@ -3962,18 +3957,18 @@
         <v>2.8218669012584109E-3</v>
       </c>
     </row>
-    <row r="42" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B42" t="s">
+        <v>12</v>
+      </c>
+      <c r="C42" t="s">
         <v>13</v>
       </c>
-      <c r="C42" t="s">
-        <v>14</v>
-      </c>
       <c r="D42" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E42" s="7">
         <v>45748</v>
@@ -3985,18 +3980,18 @@
         <v>1.1941589724821271E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B43" t="s">
+        <v>12</v>
+      </c>
+      <c r="C43" t="s">
         <v>13</v>
       </c>
-      <c r="C43" t="s">
-        <v>14</v>
-      </c>
       <c r="D43" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E43" s="7">
         <v>45748</v>
@@ -4008,18 +4003,18 @@
         <v>4.7737674072742368E-3</v>
       </c>
     </row>
-    <row r="44" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B44" t="s">
+        <v>12</v>
+      </c>
+      <c r="C44" t="s">
         <v>13</v>
       </c>
-      <c r="C44" t="s">
-        <v>14</v>
-      </c>
       <c r="D44" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E44" s="7">
         <v>45748</v>
@@ -4032,13 +4027,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G44" xr:uid="{86BEE0B4-46AA-5543-A409-0F4EECDF63D9}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="M. polaris"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:G44" xr:uid="{86BEE0B4-46AA-5543-A409-0F4EECDF63D9}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -4061,45 +4050,45 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" t="s">
         <v>46</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>47</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>48</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>49</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>50</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>51</v>
       </c>
-      <c r="H1" t="s">
-        <v>52</v>
-      </c>
       <c r="I1" t="s">
+        <v>58</v>
+      </c>
+      <c r="J1" t="s">
         <v>59</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>60</v>
-      </c>
-      <c r="K1" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" t="s">
         <v>53</v>
-      </c>
-      <c r="C2" t="s">
-        <v>54</v>
       </c>
       <c r="D2">
         <v>3221</v>
@@ -4128,13 +4117,13 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D3">
         <v>6201</v>
@@ -4163,13 +4152,13 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D4">
         <v>2118</v>
@@ -4198,13 +4187,13 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C5" t="s">
         <v>55</v>
-      </c>
-      <c r="C5" t="s">
-        <v>56</v>
       </c>
       <c r="D5">
         <v>1512</v>
@@ -4233,13 +4222,13 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D6">
         <v>1594</v>
@@ -4268,13 +4257,13 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D7">
         <v>1612</v>
@@ -4303,13 +4292,13 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C8" t="s">
         <v>53</v>
-      </c>
-      <c r="C8" t="s">
-        <v>54</v>
       </c>
       <c r="D8">
         <v>2313</v>
@@ -4338,13 +4327,13 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D9">
         <v>2463</v>
@@ -4373,13 +4362,13 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D10">
         <v>131</v>
@@ -4408,13 +4397,13 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B11" t="s">
+        <v>54</v>
+      </c>
+      <c r="C11" t="s">
         <v>55</v>
-      </c>
-      <c r="C11" t="s">
-        <v>56</v>
       </c>
       <c r="D11">
         <v>113</v>
@@ -4443,13 +4432,13 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D12">
         <v>112</v>
@@ -4478,13 +4467,13 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D13">
         <v>110</v>
@@ -4513,13 +4502,13 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B14" t="s">
+        <v>52</v>
+      </c>
+      <c r="C14" t="s">
         <v>53</v>
-      </c>
-      <c r="C14" t="s">
-        <v>54</v>
       </c>
       <c r="D14">
         <v>537649</v>
@@ -4548,13 +4537,13 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D15">
         <v>230761</v>
@@ -4583,13 +4572,13 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D16">
         <v>19491</v>
@@ -4618,13 +4607,13 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B17" t="s">
+        <v>54</v>
+      </c>
+      <c r="C17" t="s">
         <v>55</v>
-      </c>
-      <c r="C17" t="s">
-        <v>56</v>
       </c>
       <c r="D17">
         <v>18810</v>
@@ -4653,13 +4642,13 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B18" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C18" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D18">
         <v>17475</v>
@@ -4688,13 +4677,13 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B19" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C19" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D19">
         <v>18302</v>
@@ -4723,13 +4712,13 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20" t="s">
+        <v>52</v>
+      </c>
+      <c r="C20" t="s">
         <v>53</v>
-      </c>
-      <c r="C20" t="s">
-        <v>54</v>
       </c>
       <c r="D20">
         <v>205143</v>
@@ -4758,13 +4747,13 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B21" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C21" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D21">
         <v>199470</v>
@@ -4793,13 +4782,13 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B22" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C22" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D22">
         <v>749</v>
@@ -4828,13 +4817,13 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B23" t="s">
+        <v>54</v>
+      </c>
+      <c r="C23" t="s">
         <v>55</v>
-      </c>
-      <c r="C23" t="s">
-        <v>56</v>
       </c>
       <c r="D23">
         <v>650</v>
@@ -4863,13 +4852,13 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B24" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C24" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D24">
         <v>3790</v>
@@ -4892,13 +4881,13 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B25" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C25" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D25">
         <v>633</v>
@@ -4927,13 +4916,13 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B26" t="s">
+        <v>52</v>
+      </c>
+      <c r="C26" t="s">
         <v>53</v>
-      </c>
-      <c r="C26" t="s">
-        <v>54</v>
       </c>
       <c r="D26">
         <v>6743</v>
@@ -4962,13 +4951,13 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B27" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C27" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D27">
         <v>8896</v>
@@ -4997,13 +4986,13 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B28" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C28" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D28">
         <v>834</v>
@@ -5032,13 +5021,13 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B29" t="s">
+        <v>54</v>
+      </c>
+      <c r="C29" t="s">
         <v>55</v>
-      </c>
-      <c r="C29" t="s">
-        <v>56</v>
       </c>
       <c r="D29">
         <v>885</v>
@@ -5067,13 +5056,13 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B30" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C30" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D30">
         <v>805</v>
@@ -5102,13 +5091,13 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B31" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C31" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D31">
         <v>994</v>
@@ -5137,13 +5126,13 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B32" t="s">
+        <v>52</v>
+      </c>
+      <c r="C32" t="s">
         <v>53</v>
-      </c>
-      <c r="C32" t="s">
-        <v>54</v>
       </c>
       <c r="D32">
         <v>6882</v>
@@ -5172,13 +5161,13 @@
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B33" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C33" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D33">
         <v>7585</v>
@@ -5207,13 +5196,13 @@
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B34" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C34" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D34">
         <v>718</v>
@@ -5242,13 +5231,13 @@
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B35" t="s">
+        <v>54</v>
+      </c>
+      <c r="C35" t="s">
         <v>55</v>
-      </c>
-      <c r="C35" t="s">
-        <v>56</v>
       </c>
       <c r="D35">
         <v>696</v>
@@ -5277,13 +5266,13 @@
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B36" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C36" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D36">
         <v>693</v>
@@ -5312,13 +5301,13 @@
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B37" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C37" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D37">
         <v>685</v>
@@ -5347,13 +5336,13 @@
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B38" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C38" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D38">
         <v>806985</v>
@@ -5382,13 +5371,13 @@
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B39" t="s">
+        <v>52</v>
+      </c>
+      <c r="C39" t="s">
         <v>53</v>
-      </c>
-      <c r="C39" t="s">
-        <v>54</v>
       </c>
       <c r="D39">
         <v>789525</v>
@@ -5417,13 +5406,13 @@
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B40" t="s">
+        <v>54</v>
+      </c>
+      <c r="C40" t="s">
         <v>55</v>
-      </c>
-      <c r="C40" t="s">
-        <v>56</v>
       </c>
       <c r="D40">
         <v>5804</v>
@@ -5452,13 +5441,13 @@
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B41" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C41" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D41">
         <v>4912</v>
@@ -5487,13 +5476,13 @@
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B42" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C42" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D42">
         <v>5392</v>
@@ -5522,13 +5511,13 @@
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B43" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C43" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D43">
         <v>5031</v>
@@ -5557,13 +5546,13 @@
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B44" t="s">
+        <v>52</v>
+      </c>
+      <c r="C44" t="s">
         <v>53</v>
-      </c>
-      <c r="C44" t="s">
-        <v>54</v>
       </c>
       <c r="D44">
         <v>494102</v>
@@ -5592,13 +5581,13 @@
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B45" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C45" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D45">
         <v>472319</v>
@@ -5627,13 +5616,13 @@
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B46" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C46" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D46">
         <v>2667</v>
@@ -5662,13 +5651,13 @@
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B47" t="s">
+        <v>54</v>
+      </c>
+      <c r="C47" t="s">
         <v>55</v>
-      </c>
-      <c r="C47" t="s">
-        <v>56</v>
       </c>
       <c r="D47">
         <v>2401</v>
@@ -5697,13 +5686,13 @@
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B48" t="s">
+        <v>52</v>
+      </c>
+      <c r="C48" t="s">
         <v>53</v>
-      </c>
-      <c r="C48" t="s">
-        <v>54</v>
       </c>
       <c r="D48">
         <v>23397</v>
@@ -5732,13 +5721,13 @@
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B49" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C49" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D49">
         <v>24041</v>
@@ -5767,13 +5756,13 @@
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B50" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C50" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D50">
         <v>1865</v>
@@ -5802,13 +5791,13 @@
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B51" t="s">
+        <v>54</v>
+      </c>
+      <c r="C51" t="s">
         <v>55</v>
-      </c>
-      <c r="C51" t="s">
-        <v>56</v>
       </c>
       <c r="D51">
         <v>1841</v>
@@ -5837,13 +5826,13 @@
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B52" t="s">
+        <v>52</v>
+      </c>
+      <c r="C52" t="s">
         <v>53</v>
-      </c>
-      <c r="C52" t="s">
-        <v>54</v>
       </c>
       <c r="D52">
         <v>131498</v>
@@ -5872,13 +5861,13 @@
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B53" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C53" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D53">
         <v>117668</v>
@@ -5907,13 +5896,13 @@
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B54" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C54" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D54">
         <v>4558</v>
@@ -5942,13 +5931,13 @@
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B55" t="s">
+        <v>54</v>
+      </c>
+      <c r="C55" t="s">
         <v>55</v>
-      </c>
-      <c r="C55" t="s">
-        <v>56</v>
       </c>
       <c r="D55">
         <v>6160</v>
@@ -5977,13 +5966,13 @@
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B56" t="s">
+        <v>52</v>
+      </c>
+      <c r="C56" t="s">
         <v>53</v>
-      </c>
-      <c r="C56" t="s">
-        <v>54</v>
       </c>
       <c r="D56">
         <v>164161</v>
@@ -6012,13 +6001,13 @@
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B57" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C57" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D57">
         <v>168882</v>
@@ -6047,13 +6036,13 @@
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B58" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C58" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D58">
         <v>7388</v>
@@ -6082,13 +6071,13 @@
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B59" t="s">
+        <v>54</v>
+      </c>
+      <c r="C59" t="s">
         <v>55</v>
-      </c>
-      <c r="C59" t="s">
-        <v>56</v>
       </c>
       <c r="D59">
         <v>5761</v>
@@ -6117,13 +6106,13 @@
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B60" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C60" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D60">
         <v>2425</v>
@@ -6152,13 +6141,13 @@
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B61" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C61" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D61">
         <v>2446</v>
@@ -6187,13 +6176,13 @@
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B62" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C62" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D62">
         <v>1799</v>
@@ -6222,13 +6211,13 @@
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B63" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C63" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D63">
         <v>1772</v>
@@ -6257,13 +6246,13 @@
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B64" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C64" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D64">
         <v>5188</v>
@@ -6292,13 +6281,13 @@
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B65" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C65" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D65">
         <v>5823</v>
@@ -6327,13 +6316,13 @@
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B66" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C66" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D66">
         <v>5673</v>
@@ -6362,13 +6351,13 @@
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B67" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C67" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D67">
         <v>5704</v>
@@ -6397,13 +6386,13 @@
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B68" t="s">
+        <v>52</v>
+      </c>
+      <c r="C68" t="s">
         <v>53</v>
-      </c>
-      <c r="C68" t="s">
-        <v>54</v>
       </c>
       <c r="D68">
         <v>44932</v>
@@ -6432,13 +6421,13 @@
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B69" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C69" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D69">
         <v>53063</v>
@@ -6467,13 +6456,13 @@
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B70" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C70" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D70">
         <v>511</v>
@@ -6502,13 +6491,13 @@
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B71" t="s">
+        <v>54</v>
+      </c>
+      <c r="C71" t="s">
         <v>55</v>
-      </c>
-      <c r="C71" t="s">
-        <v>56</v>
       </c>
       <c r="D71">
         <v>457</v>
@@ -6537,13 +6526,13 @@
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B72" t="s">
+        <v>52</v>
+      </c>
+      <c r="C72" t="s">
         <v>53</v>
-      </c>
-      <c r="C72" t="s">
-        <v>54</v>
       </c>
       <c r="D72">
         <v>59247</v>
@@ -6572,13 +6561,13 @@
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B73" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C73" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D73">
         <v>68104</v>
@@ -6607,13 +6596,13 @@
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B74" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C74" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D74">
         <v>1616</v>
@@ -6642,13 +6631,13 @@
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B75" t="s">
+        <v>54</v>
+      </c>
+      <c r="C75" t="s">
         <v>55</v>
-      </c>
-      <c r="C75" t="s">
-        <v>56</v>
       </c>
       <c r="D75">
         <v>1453</v>
@@ -6677,13 +6666,13 @@
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B76" t="s">
+        <v>52</v>
+      </c>
+      <c r="C76" t="s">
         <v>53</v>
-      </c>
-      <c r="C76" t="s">
-        <v>54</v>
       </c>
       <c r="D76">
         <v>156176</v>
@@ -6712,13 +6701,13 @@
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B77" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C77" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D77">
         <v>153254</v>
@@ -6747,13 +6736,13 @@
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B78" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C78" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D78">
         <v>6309</v>
@@ -6782,13 +6771,13 @@
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B79" t="s">
+        <v>54</v>
+      </c>
+      <c r="C79" t="s">
         <v>55</v>
-      </c>
-      <c r="C79" t="s">
-        <v>56</v>
       </c>
       <c r="D79">
         <v>6384</v>
@@ -6817,13 +6806,13 @@
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B80" t="s">
+        <v>52</v>
+      </c>
+      <c r="C80" t="s">
         <v>53</v>
-      </c>
-      <c r="C80" t="s">
-        <v>54</v>
       </c>
       <c r="D80">
         <v>157555</v>
@@ -6852,13 +6841,13 @@
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B81" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C81" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D81">
         <v>151394</v>
@@ -6887,13 +6876,13 @@
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B82" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C82" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D82">
         <v>6857</v>
@@ -6922,13 +6911,13 @@
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B83" t="s">
+        <v>54</v>
+      </c>
+      <c r="C83" t="s">
         <v>55</v>
-      </c>
-      <c r="C83" t="s">
-        <v>56</v>
       </c>
       <c r="D83">
         <v>4284</v>
@@ -6957,13 +6946,13 @@
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B84" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C84" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D84">
         <v>487</v>
@@ -6992,13 +6981,13 @@
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B85" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C85" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D85">
         <v>485</v>
@@ -7027,13 +7016,13 @@
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B86" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C86" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D86">
         <v>1469</v>
@@ -7062,13 +7051,13 @@
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B87" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C87" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D87">
         <v>1528</v>
@@ -7097,13 +7086,13 @@
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B88" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C88" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D88">
         <v>6330</v>
@@ -7132,13 +7121,13 @@
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B89" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C89" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D89">
         <v>6757</v>
@@ -7167,13 +7156,13 @@
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B90" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C90" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D90">
         <v>4349</v>
@@ -7202,13 +7191,13 @@
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B91" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C91" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D91">
         <v>4490</v>
@@ -7237,13 +7226,13 @@
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A92" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B92" t="s">
+        <v>52</v>
+      </c>
+      <c r="C92" t="s">
         <v>53</v>
-      </c>
-      <c r="C92" t="s">
-        <v>54</v>
       </c>
       <c r="D92">
         <v>925157</v>
@@ -7272,13 +7261,13 @@
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A93" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B93" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C93" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D93">
         <v>972016</v>
@@ -7307,13 +7296,13 @@
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A94" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B94" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C94" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D94">
         <v>10383</v>
@@ -7342,13 +7331,13 @@
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A95" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B95" t="s">
+        <v>54</v>
+      </c>
+      <c r="C95" t="s">
         <v>55</v>
-      </c>
-      <c r="C95" t="s">
-        <v>56</v>
       </c>
       <c r="D95">
         <v>10031</v>
@@ -7377,13 +7366,13 @@
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A96" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B96" t="s">
+        <v>52</v>
+      </c>
+      <c r="C96" t="s">
         <v>53</v>
-      </c>
-      <c r="C96" t="s">
-        <v>54</v>
       </c>
       <c r="D96">
         <v>911878</v>
@@ -7412,13 +7401,13 @@
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A97" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B97" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C97" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D97">
         <v>973942</v>
@@ -7447,13 +7436,13 @@
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A98" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B98" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C98" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D98">
         <v>17108</v>
@@ -7482,13 +7471,13 @@
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A99" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B99" t="s">
+        <v>54</v>
+      </c>
+      <c r="C99" t="s">
         <v>55</v>
-      </c>
-      <c r="C99" t="s">
-        <v>56</v>
       </c>
       <c r="D99">
         <v>16494</v>
@@ -7517,13 +7506,13 @@
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A100" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B100" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C100" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D100">
         <v>8965</v>
@@ -7552,13 +7541,13 @@
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A101" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B101" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C101" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D101">
         <v>9291</v>
@@ -7587,13 +7576,13 @@
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A102" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B102" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C102" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D102">
         <v>17164</v>
@@ -7622,13 +7611,13 @@
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A103" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B103" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C103" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D103">
         <v>15913</v>
@@ -7657,13 +7646,13 @@
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B104" t="s">
+        <v>52</v>
+      </c>
+      <c r="C104" t="s">
         <v>53</v>
-      </c>
-      <c r="C104" t="s">
-        <v>54</v>
       </c>
       <c r="D104">
         <v>29954</v>
@@ -7692,13 +7681,13 @@
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B105" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C105" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D105">
         <v>34843</v>
@@ -7727,13 +7716,13 @@
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B106" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C106" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D106">
         <v>676</v>
@@ -7762,13 +7751,13 @@
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B107" t="s">
+        <v>54</v>
+      </c>
+      <c r="C107" t="s">
         <v>55</v>
-      </c>
-      <c r="C107" t="s">
-        <v>56</v>
       </c>
       <c r="D107">
         <v>660</v>
@@ -7797,13 +7786,13 @@
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B108" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C108" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D108">
         <v>656</v>
@@ -7832,13 +7821,13 @@
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B109" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C109" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D109">
         <v>659</v>

--- a/Data/CultureLysoData.xlsx
+++ b/Data/CultureLysoData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10905"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10921"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://outlookuga-my.sharepoint.com/personal/ccz99536_uga_edu/Documents/Cruises/NES_CCS_Comparison/AcidotropicManuscript/AcidotropicDyes/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="150" documentId="14_{3E5DAE11-4240-B84C-8A20-1DB894A86FC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F9E3FAF3-7E0E-E640-9A68-43BA5EADCBC2}"/>
+  <xr:revisionPtr revIDLastSave="153" documentId="14_{3E5DAE11-4240-B84C-8A20-1DB894A86FC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AE5DE43D-BACF-D44C-A55E-2CA1B377E2D2}"/>
   <bookViews>
-    <workbookView xWindow="48720" yWindow="-1460" windowWidth="19800" windowHeight="21100" activeTab="2" xr2:uid="{607BD773-A4C5-F849-B861-90CB68BD1820}"/>
+    <workbookView xWindow="48720" yWindow="-1460" windowWidth="19800" windowHeight="21100" xr2:uid="{607BD773-A4C5-F849-B861-90CB68BD1820}"/>
   </bookViews>
   <sheets>
     <sheet name="LysoTracker" sheetId="1" r:id="rId1"/>
@@ -99,9 +99,6 @@
     <t>P. tychotreta</t>
   </si>
   <si>
-    <t>Chaetocerous sp.</t>
-  </si>
-  <si>
     <t>Phototroph</t>
   </si>
   <si>
@@ -112,9 +109,6 @@
   </si>
   <si>
     <t>P. subcurvata </t>
-  </si>
-  <si>
-    <t>Chaetocerous sp. 22</t>
   </si>
   <si>
     <t>California Current System</t>
@@ -148,12 +142,6 @@
   </si>
   <si>
     <t>CytPix</t>
-  </si>
-  <si>
-    <t>Chaetocerous sp. 02</t>
-  </si>
-  <si>
-    <t>Chaetocerous sp. 12</t>
   </si>
   <si>
     <t>O. rostrata</t>
@@ -229,6 +217,18 @@
   </si>
   <si>
     <t>CellConcentration</t>
+  </si>
+  <si>
+    <t>Chaetoceros sp. 12</t>
+  </si>
+  <si>
+    <t>Chaetoceros sp.</t>
+  </si>
+  <si>
+    <t>Chaetoceros sp. 22</t>
+  </si>
+  <si>
+    <t>Chaetoceros sp. 02</t>
   </si>
 </sst>
 </file>
@@ -341,6 +341,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -662,8 +666,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D350FA7F-BC6A-F048-8F8F-5AAFD6033654}">
   <dimension ref="A1:K72"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D62" sqref="D62"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -705,7 +709,7 @@
         <v>8</v>
       </c>
       <c r="I1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="J1" t="s">
         <v>9</v>
@@ -713,19 +717,19 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" t="s">
         <v>19</v>
-      </c>
-      <c r="E2" t="s">
-        <v>20</v>
       </c>
       <c r="F2" s="7">
         <v>45755</v>
@@ -745,19 +749,19 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" t="s">
         <v>19</v>
-      </c>
-      <c r="E3" t="s">
-        <v>20</v>
       </c>
       <c r="F3" s="7">
         <v>45755</v>
@@ -777,19 +781,19 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B4" t="s">
         <v>11</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F4" s="7">
         <v>45474</v>
@@ -809,19 +813,19 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F5" s="7">
         <v>45444</v>
@@ -841,19 +845,19 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C6" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D6" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F6" s="7">
         <v>45762</v>
@@ -873,7 +877,7 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
         <v>11</v>
@@ -882,10 +886,10 @@
         <v>12</v>
       </c>
       <c r="D7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" t="s">
         <v>19</v>
-      </c>
-      <c r="E7" t="s">
-        <v>20</v>
       </c>
       <c r="F7" s="7">
         <v>45444</v>
@@ -906,7 +910,7 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B8" t="s">
         <v>11</v>
@@ -915,10 +919,10 @@
         <v>12</v>
       </c>
       <c r="D8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" t="s">
         <v>19</v>
-      </c>
-      <c r="E8" t="s">
-        <v>20</v>
       </c>
       <c r="F8" s="7">
         <v>45474</v>
@@ -938,19 +942,19 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B9" t="s">
         <v>11</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E9" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F9" s="7">
         <v>45374</v>
@@ -970,19 +974,19 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>59</v>
       </c>
       <c r="B10" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C10" t="s">
         <v>12</v>
       </c>
       <c r="D10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" t="s">
         <v>19</v>
-      </c>
-      <c r="E10" t="s">
-        <v>20</v>
       </c>
       <c r="F10" s="7">
         <v>45597</v>
@@ -1002,19 +1006,19 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>59</v>
       </c>
       <c r="B11" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C11" t="s">
         <v>12</v>
       </c>
       <c r="D11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" t="s">
         <v>19</v>
-      </c>
-      <c r="E11" t="s">
-        <v>20</v>
       </c>
       <c r="F11" s="7">
         <v>45559</v>
@@ -1034,19 +1038,19 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B12" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C12" t="s">
         <v>12</v>
       </c>
       <c r="D12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" t="s">
         <v>19</v>
-      </c>
-      <c r="E12" t="s">
-        <v>20</v>
       </c>
       <c r="F12" s="7">
         <v>45559</v>
@@ -1066,19 +1070,19 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B13" t="s">
         <v>11</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E13" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F13" s="7">
         <v>45374</v>
@@ -1098,19 +1102,19 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B14" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E14" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F14" s="7">
         <v>45559</v>
@@ -1130,7 +1134,7 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>18</v>
+        <v>59</v>
       </c>
       <c r="B15" t="s">
         <v>11</v>
@@ -1139,10 +1143,10 @@
         <v>12</v>
       </c>
       <c r="D15" t="s">
+        <v>18</v>
+      </c>
+      <c r="E15" t="s">
         <v>19</v>
-      </c>
-      <c r="E15" t="s">
-        <v>20</v>
       </c>
       <c r="F15" s="7">
         <v>45474</v>
@@ -1162,19 +1166,19 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B16" t="s">
         <v>11</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E16" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F16" s="7">
         <v>45474</v>
@@ -1194,7 +1198,7 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>18</v>
+        <v>59</v>
       </c>
       <c r="B17" t="s">
         <v>11</v>
@@ -1203,10 +1207,10 @@
         <v>12</v>
       </c>
       <c r="D17" t="s">
+        <v>18</v>
+      </c>
+      <c r="E17" t="s">
         <v>19</v>
-      </c>
-      <c r="E17" t="s">
-        <v>20</v>
       </c>
       <c r="F17" s="7">
         <v>45444</v>
@@ -1226,19 +1230,19 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B18" t="s">
         <v>11</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E18" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F18" s="7">
         <v>45444</v>
@@ -1258,19 +1262,19 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" t="s">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
         <v>25</v>
-      </c>
-      <c r="B19" t="s">
-        <v>34</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" t="s">
-        <v>19</v>
-      </c>
-      <c r="E19" t="s">
-        <v>27</v>
       </c>
       <c r="F19" s="7">
         <v>45559</v>
@@ -1325,7 +1329,7 @@
         <v>15</v>
       </c>
       <c r="B21" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C21" t="s">
         <v>12</v>
@@ -1418,19 +1422,19 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B24" t="s">
         <v>11</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D24" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E24" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F24" s="7">
         <v>45374</v>
@@ -1450,19 +1454,19 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B25" t="s">
         <v>11</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D25" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E25" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F25" s="7">
         <v>45374</v>
@@ -1482,19 +1486,19 @@
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B26" t="s">
         <v>11</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D26" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E26" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F26" s="7">
         <v>45444</v>
@@ -1514,19 +1518,19 @@
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B27" t="s">
         <v>11</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D27" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E27" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F27" s="7">
         <v>45474</v>
@@ -1546,19 +1550,19 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B28" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C28" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D28" t="s">
+        <v>18</v>
+      </c>
+      <c r="E28" t="s">
         <v>19</v>
-      </c>
-      <c r="E28" t="s">
-        <v>20</v>
       </c>
       <c r="F28" s="7">
         <v>45775</v>
@@ -1578,19 +1582,19 @@
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B29" t="s">
         <v>11</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D29" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E29" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F29" s="7">
         <v>45474</v>
@@ -1610,19 +1614,19 @@
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B30" t="s">
         <v>11</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D30" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E30" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F30" s="7">
         <v>45444</v>
@@ -1642,19 +1646,19 @@
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B31" t="s">
         <v>11</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D31" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E31" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F31" s="7">
         <v>45474</v>
@@ -1674,19 +1678,19 @@
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B32" t="s">
         <v>11</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D32" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E32" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F32" s="7">
         <v>45444</v>
@@ -1706,19 +1710,19 @@
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B33" t="s">
         <v>11</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D33" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E33" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F33" s="7">
         <v>45374</v>
@@ -1802,7 +1806,7 @@
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B36" t="s">
         <v>11</v>
@@ -1811,10 +1815,10 @@
         <v>12</v>
       </c>
       <c r="D36" t="s">
+        <v>18</v>
+      </c>
+      <c r="E36" t="s">
         <v>19</v>
-      </c>
-      <c r="E36" t="s">
-        <v>20</v>
       </c>
       <c r="F36" s="7">
         <v>45444</v>
@@ -1834,19 +1838,19 @@
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="B37" t="s">
         <v>11</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D37" t="s">
+        <v>18</v>
+      </c>
+      <c r="E37" t="s">
         <v>19</v>
-      </c>
-      <c r="E37" t="s">
-        <v>20</v>
       </c>
       <c r="F37" s="7">
         <v>45374</v>
@@ -1866,19 +1870,19 @@
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="B38" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D38" t="s">
+        <v>18</v>
+      </c>
+      <c r="E38" t="s">
         <v>19</v>
-      </c>
-      <c r="E38" t="s">
-        <v>20</v>
       </c>
       <c r="F38" s="7">
         <v>45559</v>
@@ -1898,19 +1902,19 @@
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B39" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D39" t="s">
+        <v>18</v>
+      </c>
+      <c r="E39" t="s">
         <v>19</v>
-      </c>
-      <c r="E39" t="s">
-        <v>20</v>
       </c>
       <c r="F39" s="7">
         <v>45559</v>
@@ -1994,7 +1998,7 @@
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B42" t="s">
         <v>11</v>
@@ -2003,10 +2007,10 @@
         <v>12</v>
       </c>
       <c r="D42" t="s">
+        <v>18</v>
+      </c>
+      <c r="E42" t="s">
         <v>19</v>
-      </c>
-      <c r="E42" t="s">
-        <v>20</v>
       </c>
       <c r="F42" s="7">
         <v>45474</v>
@@ -2061,7 +2065,7 @@
         <v>17</v>
       </c>
       <c r="B44" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C44" t="s">
         <v>12</v>
@@ -2090,19 +2094,19 @@
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B45" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C45" t="s">
         <v>12</v>
       </c>
       <c r="D45" t="s">
+        <v>18</v>
+      </c>
+      <c r="E45" t="s">
         <v>19</v>
-      </c>
-      <c r="E45" t="s">
-        <v>20</v>
       </c>
       <c r="F45" s="7">
         <v>45559</v>
@@ -2122,19 +2126,19 @@
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="B46" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D46" t="s">
+        <v>18</v>
+      </c>
+      <c r="E46" t="s">
         <v>19</v>
-      </c>
-      <c r="E46" t="s">
-        <v>20</v>
       </c>
       <c r="F46" s="7">
         <v>45597</v>
@@ -2186,7 +2190,7 @@
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B48" t="s">
         <v>11</v>
@@ -2195,10 +2199,10 @@
         <v>12</v>
       </c>
       <c r="D48" t="s">
+        <v>18</v>
+      </c>
+      <c r="E48" t="s">
         <v>19</v>
-      </c>
-      <c r="E48" t="s">
-        <v>20</v>
       </c>
       <c r="F48" s="7">
         <v>45374</v>
@@ -2218,19 +2222,19 @@
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="B49" t="s">
         <v>11</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D49" t="s">
+        <v>18</v>
+      </c>
+      <c r="E49" t="s">
         <v>19</v>
-      </c>
-      <c r="E49" t="s">
-        <v>20</v>
       </c>
       <c r="F49" s="7">
         <v>45474</v>
@@ -2253,7 +2257,7 @@
         <v>17</v>
       </c>
       <c r="B50" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C50" t="s">
         <v>12</v>
@@ -2282,7 +2286,7 @@
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B51" t="s">
         <v>11</v>
@@ -2291,10 +2295,10 @@
         <v>12</v>
       </c>
       <c r="D51" t="s">
+        <v>18</v>
+      </c>
+      <c r="E51" t="s">
         <v>19</v>
-      </c>
-      <c r="E51" t="s">
-        <v>20</v>
       </c>
       <c r="F51" s="7">
         <v>45374</v>
@@ -2317,7 +2321,7 @@
         <v>15</v>
       </c>
       <c r="B52" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C52" t="s">
         <v>12</v>
@@ -2346,19 +2350,19 @@
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B53" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D53" t="s">
+        <v>18</v>
+      </c>
+      <c r="E53" t="s">
         <v>19</v>
-      </c>
-      <c r="E53" t="s">
-        <v>20</v>
       </c>
       <c r="F53" s="7">
         <v>45597</v>
@@ -2378,19 +2382,19 @@
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="B54" t="s">
         <v>11</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D54" t="s">
+        <v>18</v>
+      </c>
+      <c r="E54" t="s">
         <v>19</v>
-      </c>
-      <c r="E54" t="s">
-        <v>20</v>
       </c>
       <c r="F54" s="7">
         <v>45444</v>
@@ -2410,19 +2414,19 @@
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
+        <v>27</v>
+      </c>
+      <c r="B55" t="s">
+        <v>32</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D55" t="s">
+        <v>18</v>
+      </c>
+      <c r="E55" t="s">
         <v>29</v>
-      </c>
-      <c r="B55" t="s">
-        <v>34</v>
-      </c>
-      <c r="C55" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D55" t="s">
-        <v>19</v>
-      </c>
-      <c r="E55" t="s">
-        <v>31</v>
       </c>
       <c r="F55" s="7">
         <v>45723</v>
@@ -2445,7 +2449,7 @@
         <v>17</v>
       </c>
       <c r="B56" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C56" t="s">
         <v>12</v>
@@ -2477,7 +2481,7 @@
         <v>17</v>
       </c>
       <c r="B57" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C57" t="s">
         <v>12</v>
@@ -2509,7 +2513,7 @@
         <v>17</v>
       </c>
       <c r="B58" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C58" t="s">
         <v>12</v>
@@ -2570,16 +2574,16 @@
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B60" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C60" t="s">
         <v>12</v>
       </c>
       <c r="D60" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E60" t="s">
         <v>16</v>
@@ -2603,19 +2607,19 @@
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="B61" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D61" t="s">
+        <v>18</v>
+      </c>
+      <c r="E61" t="s">
         <v>19</v>
-      </c>
-      <c r="E61" t="s">
-        <v>20</v>
       </c>
       <c r="F61" s="7">
         <v>45559</v>
@@ -2635,19 +2639,19 @@
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B62" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C62" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D62" t="s">
+        <v>18</v>
+      </c>
+      <c r="E62" t="s">
         <v>19</v>
-      </c>
-      <c r="E62" t="s">
-        <v>20</v>
       </c>
       <c r="F62" s="7">
         <v>45658</v>
@@ -2667,19 +2671,19 @@
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B63" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D63" t="s">
+        <v>18</v>
+      </c>
+      <c r="E63" t="s">
         <v>19</v>
-      </c>
-      <c r="E63" t="s">
-        <v>20</v>
       </c>
       <c r="F63" s="7">
         <v>45820</v>
@@ -2702,7 +2706,7 @@
         <v>10</v>
       </c>
       <c r="B64" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C64" t="s">
         <v>12</v>
@@ -2731,7 +2735,7 @@
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B65" t="s">
         <v>11</v>
@@ -2740,10 +2744,10 @@
         <v>12</v>
       </c>
       <c r="D65" t="s">
+        <v>18</v>
+      </c>
+      <c r="E65" t="s">
         <v>19</v>
-      </c>
-      <c r="E65" t="s">
-        <v>20</v>
       </c>
       <c r="F65" s="7">
         <v>45374</v>
@@ -2763,7 +2767,7 @@
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B66" t="s">
         <v>11</v>
@@ -2772,10 +2776,10 @@
         <v>12</v>
       </c>
       <c r="D66" t="s">
+        <v>18</v>
+      </c>
+      <c r="E66" t="s">
         <v>19</v>
-      </c>
-      <c r="E66" t="s">
-        <v>20</v>
       </c>
       <c r="F66" s="7">
         <v>45374</v>
@@ -2827,19 +2831,19 @@
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B68" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D68" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E68" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F68" s="7">
         <v>45559</v>
@@ -2859,19 +2863,19 @@
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
+        <v>30</v>
+      </c>
+      <c r="B69" t="s">
         <v>32</v>
       </c>
-      <c r="B69" t="s">
-        <v>34</v>
-      </c>
       <c r="C69" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D69" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E69" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F69" s="7">
         <v>45559</v>
@@ -2891,16 +2895,16 @@
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B70" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C70" t="s">
         <v>12</v>
       </c>
       <c r="D70" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E70" t="s">
         <v>16</v>
@@ -2923,19 +2927,19 @@
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A71" s="3" t="s">
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="B71" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D71" t="s">
+        <v>18</v>
+      </c>
+      <c r="E71" t="s">
         <v>19</v>
-      </c>
-      <c r="E71" t="s">
-        <v>20</v>
       </c>
       <c r="F71" s="7">
         <v>45559</v>
@@ -2955,19 +2959,19 @@
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
+        <v>27</v>
+      </c>
+      <c r="B72" t="s">
+        <v>32</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D72" t="s">
+        <v>18</v>
+      </c>
+      <c r="E72" t="s">
         <v>29</v>
-      </c>
-      <c r="B72" t="s">
-        <v>34</v>
-      </c>
-      <c r="C72" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D72" t="s">
-        <v>19</v>
-      </c>
-      <c r="E72" t="s">
-        <v>31</v>
       </c>
       <c r="F72" s="7">
         <v>45559</v>
@@ -3000,7 +3004,7 @@
   <dimension ref="A1:G44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3031,24 +3035,24 @@
         <v>6</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>59</v>
       </c>
       <c r="B2" t="s">
         <v>12</v>
       </c>
       <c r="C2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" t="s">
         <v>19</v>
-      </c>
-      <c r="D2" t="s">
-        <v>20</v>
       </c>
       <c r="E2" s="7">
         <v>45536</v>
@@ -3062,16 +3066,16 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
         <v>12</v>
       </c>
       <c r="C3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" t="s">
         <v>19</v>
-      </c>
-      <c r="D3" t="s">
-        <v>20</v>
       </c>
       <c r="E3" s="7">
         <v>45536</v>
@@ -3085,16 +3089,16 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>12</v>
       </c>
       <c r="C4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" t="s">
         <v>19</v>
-      </c>
-      <c r="D4" t="s">
-        <v>20</v>
       </c>
       <c r="E4" s="7">
         <v>45536</v>
@@ -3108,16 +3112,16 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" t="s">
         <v>19</v>
-      </c>
-      <c r="D5" t="s">
-        <v>20</v>
       </c>
       <c r="E5" s="7">
         <v>45536</v>
@@ -3131,16 +3135,16 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" t="s">
         <v>19</v>
-      </c>
-      <c r="D6" t="s">
-        <v>20</v>
       </c>
       <c r="E6" s="7">
         <v>45536</v>
@@ -3154,16 +3158,16 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" t="s">
         <v>19</v>
-      </c>
-      <c r="D7" t="s">
-        <v>20</v>
       </c>
       <c r="E7" s="7">
         <v>45536</v>
@@ -3177,16 +3181,16 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" t="s">
         <v>19</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
       </c>
       <c r="E8" s="7">
         <v>45536</v>
@@ -3200,16 +3204,16 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" t="s">
         <v>19</v>
-      </c>
-      <c r="D9" t="s">
-        <v>20</v>
       </c>
       <c r="E9" s="7">
         <v>45536</v>
@@ -3223,16 +3227,16 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" t="s">
         <v>25</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" t="s">
-        <v>27</v>
       </c>
       <c r="E10" s="7">
         <v>45536</v>
@@ -3246,16 +3250,16 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D11" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E11" s="7">
         <v>45536</v>
@@ -3269,16 +3273,16 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E12" s="7">
         <v>45536</v>
@@ -3292,16 +3296,16 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D13" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E13" s="7">
         <v>45536</v>
@@ -3315,16 +3319,16 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" t="s">
         <v>29</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C14" t="s">
-        <v>19</v>
-      </c>
-      <c r="D14" t="s">
-        <v>31</v>
       </c>
       <c r="E14" s="7">
         <v>45536</v>
@@ -3407,16 +3411,16 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B18" t="s">
         <v>12</v>
       </c>
       <c r="C18" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18" t="s">
         <v>19</v>
-      </c>
-      <c r="D18" t="s">
-        <v>20</v>
       </c>
       <c r="E18" s="12">
         <v>45505</v>
@@ -3430,16 +3434,16 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B19" t="s">
         <v>12</v>
       </c>
       <c r="C19" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" t="s">
         <v>19</v>
-      </c>
-      <c r="D19" t="s">
-        <v>20</v>
       </c>
       <c r="E19" s="12">
         <v>45505</v>
@@ -3453,16 +3457,16 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>18</v>
+        <v>59</v>
       </c>
       <c r="B20" t="s">
         <v>12</v>
       </c>
       <c r="C20" t="s">
+        <v>18</v>
+      </c>
+      <c r="D20" t="s">
         <v>19</v>
-      </c>
-      <c r="D20" t="s">
-        <v>20</v>
       </c>
       <c r="E20" s="12">
         <v>45505</v>
@@ -3476,16 +3480,16 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C21" t="s">
+        <v>18</v>
+      </c>
+      <c r="D21" t="s">
         <v>19</v>
-      </c>
-      <c r="D21" t="s">
-        <v>20</v>
       </c>
       <c r="E21" s="12">
         <v>45505</v>
@@ -3499,16 +3503,16 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" t="s">
+        <v>18</v>
+      </c>
+      <c r="D22" t="s">
         <v>25</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C22" t="s">
-        <v>19</v>
-      </c>
-      <c r="D22" t="s">
-        <v>27</v>
       </c>
       <c r="E22" s="12">
         <v>45505</v>
@@ -3522,16 +3526,16 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C23" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D23" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E23" s="12">
         <v>45505</v>
@@ -3545,16 +3549,16 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C24" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D24" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E24" s="12">
         <v>45505</v>
@@ -3568,16 +3572,16 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C25" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D25" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E25" s="12">
         <v>45505</v>
@@ -3660,16 +3664,16 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C29" t="s">
+        <v>18</v>
+      </c>
+      <c r="D29" t="s">
         <v>19</v>
-      </c>
-      <c r="D29" t="s">
-        <v>20</v>
       </c>
       <c r="E29" s="7">
         <v>45597</v>
@@ -3683,16 +3687,16 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C30" t="s">
+        <v>18</v>
+      </c>
+      <c r="D30" t="s">
         <v>19</v>
-      </c>
-      <c r="D30" t="s">
-        <v>20</v>
       </c>
       <c r="E30" s="7">
         <v>45597</v>
@@ -3706,16 +3710,16 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>18</v>
+        <v>59</v>
       </c>
       <c r="B31" t="s">
         <v>12</v>
       </c>
       <c r="C31" t="s">
+        <v>18</v>
+      </c>
+      <c r="D31" t="s">
         <v>19</v>
-      </c>
-      <c r="D31" t="s">
-        <v>20</v>
       </c>
       <c r="E31" s="7">
         <v>45597</v>
@@ -3752,16 +3756,16 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C33" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D33" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E33" s="7">
         <v>45597</v>
@@ -3775,13 +3779,13 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B34" t="s">
         <v>12</v>
       </c>
       <c r="C34" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D34" t="s">
         <v>16</v>
@@ -3798,16 +3802,16 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B35" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C35" t="s">
+        <v>18</v>
+      </c>
+      <c r="D35" t="s">
         <v>19</v>
-      </c>
-      <c r="D35" t="s">
-        <v>20</v>
       </c>
       <c r="E35" s="7">
         <v>45658</v>
@@ -3821,16 +3825,16 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
+        <v>27</v>
+      </c>
+      <c r="B36" t="s">
+        <v>28</v>
+      </c>
+      <c r="C36" t="s">
+        <v>18</v>
+      </c>
+      <c r="D36" t="s">
         <v>29</v>
-      </c>
-      <c r="B36" t="s">
-        <v>30</v>
-      </c>
-      <c r="C36" t="s">
-        <v>19</v>
-      </c>
-      <c r="D36" t="s">
-        <v>31</v>
       </c>
       <c r="E36" s="7">
         <v>45723</v>
@@ -3844,16 +3848,16 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C37" t="s">
+        <v>18</v>
+      </c>
+      <c r="D37" t="s">
         <v>19</v>
-      </c>
-      <c r="D37" t="s">
-        <v>20</v>
       </c>
       <c r="E37" s="7">
         <v>45755</v>
@@ -3867,16 +3871,16 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C38" t="s">
+        <v>18</v>
+      </c>
+      <c r="D38" t="s">
         <v>19</v>
-      </c>
-      <c r="D38" t="s">
-        <v>20</v>
       </c>
       <c r="E38" s="7">
         <v>45755</v>
@@ -3890,13 +3894,13 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B39" t="s">
         <v>12</v>
       </c>
       <c r="C39" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D39" t="s">
         <v>16</v>
@@ -3913,16 +3917,16 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B40" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C40" t="s">
+        <v>18</v>
+      </c>
+      <c r="D40" t="s">
         <v>19</v>
-      </c>
-      <c r="D40" t="s">
-        <v>20</v>
       </c>
       <c r="E40" s="7">
         <v>45762</v>
@@ -3936,16 +3940,16 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B41" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C41" t="s">
+        <v>18</v>
+      </c>
+      <c r="D41" t="s">
         <v>19</v>
-      </c>
-      <c r="D41" t="s">
-        <v>20</v>
       </c>
       <c r="E41" s="7">
         <v>45775</v>
@@ -4036,7 +4040,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8ED9F22E-E12E-E74A-87ED-9CBCE3E6ABE3}">
   <dimension ref="A1:K109"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
@@ -4050,45 +4054,45 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F1" t="s">
         <v>45</v>
       </c>
-      <c r="C1" t="s">
+      <c r="G1" t="s">
         <v>46</v>
       </c>
-      <c r="D1" t="s">
+      <c r="H1" t="s">
         <v>47</v>
       </c>
-      <c r="E1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F1" t="s">
-        <v>49</v>
-      </c>
-      <c r="G1" t="s">
-        <v>50</v>
-      </c>
-      <c r="H1" t="s">
-        <v>51</v>
-      </c>
       <c r="I1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="J1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="K1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D2">
         <v>3221</v>
@@ -4117,13 +4121,13 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B3" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C3" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D3">
         <v>6201</v>
@@ -4152,13 +4156,13 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C4" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D4">
         <v>2118</v>
@@ -4187,13 +4191,13 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B5" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C5" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D5">
         <v>1512</v>
@@ -4222,13 +4226,13 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6" t="s">
         <v>52</v>
-      </c>
-      <c r="C6" t="s">
-        <v>56</v>
       </c>
       <c r="D6">
         <v>1594</v>
@@ -4257,13 +4261,13 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B7" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C7" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D7">
         <v>1612</v>
@@ -4292,13 +4296,13 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B8" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C8" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D8">
         <v>2313</v>
@@ -4327,13 +4331,13 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B9" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C9" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D9">
         <v>2463</v>
@@ -4362,13 +4366,13 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B10" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C10" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D10">
         <v>131</v>
@@ -4397,13 +4401,13 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B11" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C11" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D11">
         <v>113</v>
@@ -4432,13 +4436,13 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B12" t="s">
+        <v>48</v>
+      </c>
+      <c r="C12" t="s">
         <v>52</v>
-      </c>
-      <c r="C12" t="s">
-        <v>56</v>
       </c>
       <c r="D12">
         <v>112</v>
@@ -4467,13 +4471,13 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B13" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C13" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D13">
         <v>110</v>
@@ -4502,13 +4506,13 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="B14" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C14" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D14">
         <v>537649</v>
@@ -4537,13 +4541,13 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="B15" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C15" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D15">
         <v>230761</v>
@@ -4572,13 +4576,13 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="B16" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C16" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D16">
         <v>19491</v>
@@ -4607,13 +4611,13 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="B17" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C17" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D17">
         <v>18810</v>
@@ -4642,13 +4646,13 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="B18" t="s">
+        <v>48</v>
+      </c>
+      <c r="C18" t="s">
         <v>52</v>
-      </c>
-      <c r="C18" t="s">
-        <v>56</v>
       </c>
       <c r="D18">
         <v>17475</v>
@@ -4677,13 +4681,13 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="B19" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C19" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D19">
         <v>18302</v>
@@ -4712,13 +4716,13 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>18</v>
+        <v>59</v>
       </c>
       <c r="B20" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C20" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D20">
         <v>205143</v>
@@ -4747,13 +4751,13 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>18</v>
+        <v>59</v>
       </c>
       <c r="B21" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C21" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D21">
         <v>199470</v>
@@ -4782,13 +4786,13 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>18</v>
+        <v>59</v>
       </c>
       <c r="B22" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C22" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D22">
         <v>749</v>
@@ -4817,13 +4821,13 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>18</v>
+        <v>59</v>
       </c>
       <c r="B23" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C23" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D23">
         <v>650</v>
@@ -4852,13 +4856,13 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>18</v>
+        <v>59</v>
       </c>
       <c r="B24" t="s">
+        <v>48</v>
+      </c>
+      <c r="C24" t="s">
         <v>52</v>
-      </c>
-      <c r="C24" t="s">
-        <v>56</v>
       </c>
       <c r="D24">
         <v>3790</v>
@@ -4881,13 +4885,13 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>18</v>
+        <v>59</v>
       </c>
       <c r="B25" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C25" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D25">
         <v>633</v>
@@ -4919,10 +4923,10 @@
         <v>15</v>
       </c>
       <c r="B26" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C26" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D26">
         <v>6743</v>
@@ -4954,10 +4958,10 @@
         <v>15</v>
       </c>
       <c r="B27" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C27" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D27">
         <v>8896</v>
@@ -4989,10 +4993,10 @@
         <v>15</v>
       </c>
       <c r="B28" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C28" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D28">
         <v>834</v>
@@ -5024,10 +5028,10 @@
         <v>15</v>
       </c>
       <c r="B29" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C29" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D29">
         <v>885</v>
@@ -5059,10 +5063,10 @@
         <v>15</v>
       </c>
       <c r="B30" t="s">
+        <v>48</v>
+      </c>
+      <c r="C30" t="s">
         <v>52</v>
-      </c>
-      <c r="C30" t="s">
-        <v>56</v>
       </c>
       <c r="D30">
         <v>805</v>
@@ -5094,10 +5098,10 @@
         <v>15</v>
       </c>
       <c r="B31" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C31" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D31">
         <v>994</v>
@@ -5126,13 +5130,13 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B32" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C32" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D32">
         <v>6882</v>
@@ -5161,13 +5165,13 @@
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B33" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C33" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D33">
         <v>7585</v>
@@ -5196,13 +5200,13 @@
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B34" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C34" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D34">
         <v>718</v>
@@ -5231,13 +5235,13 @@
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B35" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C35" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D35">
         <v>696</v>
@@ -5266,13 +5270,13 @@
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B36" t="s">
+        <v>48</v>
+      </c>
+      <c r="C36" t="s">
         <v>52</v>
-      </c>
-      <c r="C36" t="s">
-        <v>56</v>
       </c>
       <c r="D36">
         <v>693</v>
@@ -5301,13 +5305,13 @@
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B37" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C37" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D37">
         <v>685</v>
@@ -5336,13 +5340,13 @@
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="B38" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C38" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D38">
         <v>806985</v>
@@ -5371,13 +5375,13 @@
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="B39" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C39" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D39">
         <v>789525</v>
@@ -5406,13 +5410,13 @@
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="B40" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C40" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D40">
         <v>5804</v>
@@ -5441,13 +5445,13 @@
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="B41" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C41" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D41">
         <v>4912</v>
@@ -5476,13 +5480,13 @@
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="B42" t="s">
+        <v>48</v>
+      </c>
+      <c r="C42" t="s">
         <v>52</v>
-      </c>
-      <c r="C42" t="s">
-        <v>56</v>
       </c>
       <c r="D42">
         <v>5392</v>
@@ -5511,13 +5515,13 @@
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="B43" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C43" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D43">
         <v>5031</v>
@@ -5546,13 +5550,13 @@
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B44" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C44" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D44">
         <v>494102</v>
@@ -5581,13 +5585,13 @@
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B45" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C45" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D45">
         <v>472319</v>
@@ -5616,13 +5620,13 @@
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B46" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C46" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D46">
         <v>2667</v>
@@ -5651,13 +5655,13 @@
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B47" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C47" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D47">
         <v>2401</v>
@@ -5686,13 +5690,13 @@
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B48" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C48" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D48">
         <v>23397</v>
@@ -5721,13 +5725,13 @@
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B49" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C49" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D49">
         <v>24041</v>
@@ -5756,13 +5760,13 @@
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B50" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C50" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D50">
         <v>1865</v>
@@ -5791,13 +5795,13 @@
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B51" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C51" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D51">
         <v>1841</v>
@@ -5826,13 +5830,13 @@
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B52" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C52" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D52">
         <v>131498</v>
@@ -5861,13 +5865,13 @@
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B53" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C53" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D53">
         <v>117668</v>
@@ -5896,13 +5900,13 @@
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B54" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C54" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D54">
         <v>4558</v>
@@ -5931,13 +5935,13 @@
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B55" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C55" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D55">
         <v>6160</v>
@@ -5966,13 +5970,13 @@
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B56" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C56" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D56">
         <v>164161</v>
@@ -6001,13 +6005,13 @@
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B57" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C57" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D57">
         <v>168882</v>
@@ -6036,13 +6040,13 @@
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B58" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C58" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D58">
         <v>7388</v>
@@ -6071,13 +6075,13 @@
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B59" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C59" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D59">
         <v>5761</v>
@@ -6106,13 +6110,13 @@
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B60" t="s">
+        <v>48</v>
+      </c>
+      <c r="C60" t="s">
         <v>52</v>
-      </c>
-      <c r="C60" t="s">
-        <v>56</v>
       </c>
       <c r="D60">
         <v>2425</v>
@@ -6141,13 +6145,13 @@
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B61" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C61" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D61">
         <v>2446</v>
@@ -6176,13 +6180,13 @@
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B62" t="s">
+        <v>48</v>
+      </c>
+      <c r="C62" t="s">
         <v>52</v>
-      </c>
-      <c r="C62" t="s">
-        <v>56</v>
       </c>
       <c r="D62">
         <v>1799</v>
@@ -6211,13 +6215,13 @@
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B63" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C63" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D63">
         <v>1772</v>
@@ -6246,13 +6250,13 @@
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B64" t="s">
+        <v>48</v>
+      </c>
+      <c r="C64" t="s">
         <v>52</v>
-      </c>
-      <c r="C64" t="s">
-        <v>56</v>
       </c>
       <c r="D64">
         <v>5188</v>
@@ -6281,13 +6285,13 @@
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B65" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C65" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D65">
         <v>5823</v>
@@ -6316,13 +6320,13 @@
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B66" t="s">
+        <v>48</v>
+      </c>
+      <c r="C66" t="s">
         <v>52</v>
-      </c>
-      <c r="C66" t="s">
-        <v>56</v>
       </c>
       <c r="D66">
         <v>5673</v>
@@ -6351,13 +6355,13 @@
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B67" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C67" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D67">
         <v>5704</v>
@@ -6386,13 +6390,13 @@
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B68" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C68" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D68">
         <v>44932</v>
@@ -6421,13 +6425,13 @@
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B69" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C69" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D69">
         <v>53063</v>
@@ -6456,13 +6460,13 @@
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B70" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C70" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D70">
         <v>511</v>
@@ -6491,13 +6495,13 @@
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B71" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C71" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D71">
         <v>457</v>
@@ -6526,13 +6530,13 @@
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B72" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C72" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D72">
         <v>59247</v>
@@ -6561,13 +6565,13 @@
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B73" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C73" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D73">
         <v>68104</v>
@@ -6596,13 +6600,13 @@
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B74" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C74" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D74">
         <v>1616</v>
@@ -6631,13 +6635,13 @@
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B75" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C75" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D75">
         <v>1453</v>
@@ -6669,10 +6673,10 @@
         <v>10</v>
       </c>
       <c r="B76" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C76" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D76">
         <v>156176</v>
@@ -6704,10 +6708,10 @@
         <v>10</v>
       </c>
       <c r="B77" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C77" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D77">
         <v>153254</v>
@@ -6739,10 +6743,10 @@
         <v>10</v>
       </c>
       <c r="B78" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C78" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D78">
         <v>6309</v>
@@ -6774,10 +6778,10 @@
         <v>10</v>
       </c>
       <c r="B79" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C79" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D79">
         <v>6384</v>
@@ -6809,10 +6813,10 @@
         <v>17</v>
       </c>
       <c r="B80" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C80" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D80">
         <v>157555</v>
@@ -6844,10 +6848,10 @@
         <v>17</v>
       </c>
       <c r="B81" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C81" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D81">
         <v>151394</v>
@@ -6879,10 +6883,10 @@
         <v>17</v>
       </c>
       <c r="B82" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C82" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D82">
         <v>6857</v>
@@ -6914,10 +6918,10 @@
         <v>17</v>
       </c>
       <c r="B83" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C83" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D83">
         <v>4284</v>
@@ -6946,13 +6950,13 @@
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B84" t="s">
+        <v>48</v>
+      </c>
+      <c r="C84" t="s">
         <v>52</v>
-      </c>
-      <c r="C84" t="s">
-        <v>56</v>
       </c>
       <c r="D84">
         <v>487</v>
@@ -6981,13 +6985,13 @@
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B85" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C85" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D85">
         <v>485</v>
@@ -7016,13 +7020,13 @@
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B86" t="s">
+        <v>48</v>
+      </c>
+      <c r="C86" t="s">
         <v>52</v>
-      </c>
-      <c r="C86" t="s">
-        <v>56</v>
       </c>
       <c r="D86">
         <v>1469</v>
@@ -7051,13 +7055,13 @@
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B87" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C87" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D87">
         <v>1528</v>
@@ -7089,10 +7093,10 @@
         <v>10</v>
       </c>
       <c r="B88" t="s">
+        <v>48</v>
+      </c>
+      <c r="C88" t="s">
         <v>52</v>
-      </c>
-      <c r="C88" t="s">
-        <v>56</v>
       </c>
       <c r="D88">
         <v>6330</v>
@@ -7124,10 +7128,10 @@
         <v>10</v>
       </c>
       <c r="B89" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C89" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D89">
         <v>6757</v>
@@ -7159,10 +7163,10 @@
         <v>17</v>
       </c>
       <c r="B90" t="s">
+        <v>48</v>
+      </c>
+      <c r="C90" t="s">
         <v>52</v>
-      </c>
-      <c r="C90" t="s">
-        <v>56</v>
       </c>
       <c r="D90">
         <v>4349</v>
@@ -7194,10 +7198,10 @@
         <v>17</v>
       </c>
       <c r="B91" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C91" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D91">
         <v>4490</v>
@@ -7226,13 +7230,13 @@
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A92" s="3" t="s">
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="B92" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C92" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D92">
         <v>925157</v>
@@ -7261,13 +7265,13 @@
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A93" s="3" t="s">
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="B93" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C93" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D93">
         <v>972016</v>
@@ -7296,13 +7300,13 @@
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A94" s="3" t="s">
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="B94" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C94" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D94">
         <v>10383</v>
@@ -7331,13 +7335,13 @@
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A95" s="3" t="s">
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="B95" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C95" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D95">
         <v>10031</v>
@@ -7366,13 +7370,13 @@
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A96" s="3" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B96" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C96" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D96">
         <v>911878</v>
@@ -7401,13 +7405,13 @@
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A97" s="3" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B97" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C97" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D97">
         <v>973942</v>
@@ -7436,13 +7440,13 @@
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A98" s="3" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B98" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C98" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D98">
         <v>17108</v>
@@ -7471,13 +7475,13 @@
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A99" s="3" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B99" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C99" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D99">
         <v>16494</v>
@@ -7506,13 +7510,13 @@
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A100" s="3" t="s">
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="B100" t="s">
+        <v>48</v>
+      </c>
+      <c r="C100" t="s">
         <v>52</v>
-      </c>
-      <c r="C100" t="s">
-        <v>56</v>
       </c>
       <c r="D100">
         <v>8965</v>
@@ -7541,13 +7545,13 @@
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A101" s="3" t="s">
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="B101" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C101" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D101">
         <v>9291</v>
@@ -7576,13 +7580,13 @@
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A102" s="3" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B102" t="s">
+        <v>48</v>
+      </c>
+      <c r="C102" t="s">
         <v>52</v>
-      </c>
-      <c r="C102" t="s">
-        <v>56</v>
       </c>
       <c r="D102">
         <v>17164</v>
@@ -7611,13 +7615,13 @@
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A103" s="3" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B103" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C103" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D103">
         <v>15913</v>
@@ -7646,13 +7650,13 @@
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B104" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C104" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D104">
         <v>29954</v>
@@ -7681,13 +7685,13 @@
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B105" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C105" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D105">
         <v>34843</v>
@@ -7716,13 +7720,13 @@
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B106" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C106" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D106">
         <v>676</v>
@@ -7751,13 +7755,13 @@
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B107" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C107" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D107">
         <v>660</v>
@@ -7786,13 +7790,13 @@
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B108" t="s">
+        <v>48</v>
+      </c>
+      <c r="C108" t="s">
         <v>52</v>
-      </c>
-      <c r="C108" t="s">
-        <v>56</v>
       </c>
       <c r="D108">
         <v>656</v>
@@ -7821,13 +7825,13 @@
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B109" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C109" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D109">
         <v>659</v>
